--- a/Data/全部数据/原始excel/k=2.0/祥-调节2hz_20160620_102006_ASIC_EEG.xlsx
+++ b/Data/全部数据/原始excel/k=2.0/祥-调节2hz_20160620_102006_ASIC_EEG.xlsx
@@ -2,20 +2,20 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\脑电波\lz\全部数据\原始excel\k=2.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="8175" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16170" windowHeight="8160" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="第一组" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -99,19 +99,19 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -161,7 +161,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -206,9 +206,9 @@
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -241,9 +241,9 @@
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -427,7 +427,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -442,9 +442,9 @@
       <selection sqref="A1:W889"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -515,7 +515,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>340</v>
       </c>
@@ -586,7 +586,7 @@
         <v>102007</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>853</v>
       </c>
@@ -657,7 +657,7 @@
         <v>102008</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1879</v>
       </c>
@@ -728,7 +728,7 @@
         <v>102010</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2392</v>
       </c>
@@ -799,7 +799,7 @@
         <v>102011</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2905</v>
       </c>
@@ -870,7 +870,7 @@
         <v>102012</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>3418</v>
       </c>
@@ -941,7 +941,7 @@
         <v>102013</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>3931</v>
       </c>
@@ -1012,7 +1012,7 @@
         <v>102014</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>4444</v>
       </c>
@@ -1083,7 +1083,7 @@
         <v>102015</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>4957</v>
       </c>
@@ -1154,7 +1154,7 @@
         <v>102016</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>5470</v>
       </c>
@@ -1225,7 +1225,7 @@
         <v>102017</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>5983</v>
       </c>
@@ -1296,7 +1296,7 @@
         <v>102018</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>6496</v>
       </c>
@@ -1367,7 +1367,7 @@
         <v>102019</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>7009</v>
       </c>
@@ -1438,7 +1438,7 @@
         <v>102020</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>7522</v>
       </c>
@@ -1509,7 +1509,7 @@
         <v>102021</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>8035</v>
       </c>
@@ -1580,7 +1580,7 @@
         <v>102022</v>
       </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>8548</v>
       </c>
@@ -1651,7 +1651,7 @@
         <v>102023</v>
       </c>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>9061</v>
       </c>
@@ -1722,7 +1722,7 @@
         <v>102024</v>
       </c>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>9574</v>
       </c>
@@ -1793,7 +1793,7 @@
         <v>102025</v>
       </c>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>10087</v>
       </c>
@@ -1864,7 +1864,7 @@
         <v>102026</v>
       </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>10600</v>
       </c>
@@ -1935,7 +1935,7 @@
         <v>102027</v>
       </c>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>11113</v>
       </c>
@@ -2006,7 +2006,7 @@
         <v>102028</v>
       </c>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>11626</v>
       </c>
@@ -2077,7 +2077,7 @@
         <v>102029</v>
       </c>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>12139</v>
       </c>
@@ -2148,7 +2148,7 @@
         <v>102030</v>
       </c>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>12652</v>
       </c>
@@ -2219,7 +2219,7 @@
         <v>102031</v>
       </c>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>13165</v>
       </c>
@@ -2290,7 +2290,7 @@
         <v>102032</v>
       </c>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>13678</v>
       </c>
@@ -2361,7 +2361,7 @@
         <v>102033</v>
       </c>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>14191</v>
       </c>
@@ -2432,7 +2432,7 @@
         <v>102034</v>
       </c>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>14704</v>
       </c>
@@ -2503,7 +2503,7 @@
         <v>102035</v>
       </c>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>15217</v>
       </c>
@@ -2574,7 +2574,7 @@
         <v>102036</v>
       </c>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>15730</v>
       </c>
@@ -2645,7 +2645,7 @@
         <v>102037</v>
       </c>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>16243</v>
       </c>
@@ -2716,7 +2716,7 @@
         <v>102038</v>
       </c>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>16756</v>
       </c>
@@ -2787,7 +2787,7 @@
         <v>102039</v>
       </c>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>17269</v>
       </c>
@@ -2858,7 +2858,7 @@
         <v>102040</v>
       </c>
     </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>17782</v>
       </c>
@@ -2929,7 +2929,7 @@
         <v>102041</v>
       </c>
     </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>18295</v>
       </c>
@@ -3000,7 +3000,7 @@
         <v>102042</v>
       </c>
     </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>18808</v>
       </c>
@@ -3071,7 +3071,7 @@
         <v>102043</v>
       </c>
     </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>19321</v>
       </c>
@@ -3142,7 +3142,7 @@
         <v>102044</v>
       </c>
     </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>19834</v>
       </c>
@@ -3213,7 +3213,7 @@
         <v>102045</v>
       </c>
     </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>20347</v>
       </c>
@@ -3284,7 +3284,7 @@
         <v>102046</v>
       </c>
     </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>20860</v>
       </c>
@@ -3355,7 +3355,7 @@
         <v>102047</v>
       </c>
     </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>21373</v>
       </c>
@@ -3426,7 +3426,7 @@
         <v>102048</v>
       </c>
     </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>21886</v>
       </c>
@@ -3497,7 +3497,7 @@
         <v>102049</v>
       </c>
     </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>22399</v>
       </c>
@@ -3568,7 +3568,7 @@
         <v>102050</v>
       </c>
     </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>22912</v>
       </c>
@@ -3639,7 +3639,7 @@
         <v>102051</v>
       </c>
     </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>23425</v>
       </c>
@@ -3710,7 +3710,7 @@
         <v>102052</v>
       </c>
     </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>23938</v>
       </c>
@@ -3781,7 +3781,7 @@
         <v>102053</v>
       </c>
     </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>24451</v>
       </c>
@@ -3852,7 +3852,7 @@
         <v>102054</v>
       </c>
     </row>
-    <row r="49" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>24964</v>
       </c>
@@ -3923,7 +3923,7 @@
         <v>102054</v>
       </c>
     </row>
-    <row r="50" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>25477</v>
       </c>
@@ -3994,7 +3994,7 @@
         <v>102055</v>
       </c>
     </row>
-    <row r="51" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>25990</v>
       </c>
@@ -4065,7 +4065,7 @@
         <v>102056</v>
       </c>
     </row>
-    <row r="52" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>26503</v>
       </c>
@@ -4136,7 +4136,7 @@
         <v>102057</v>
       </c>
     </row>
-    <row r="53" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>27016</v>
       </c>
@@ -4207,7 +4207,7 @@
         <v>102059</v>
       </c>
     </row>
-    <row r="54" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>27529</v>
       </c>
@@ -4278,7 +4278,7 @@
         <v>102059</v>
       </c>
     </row>
-    <row r="55" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>28042</v>
       </c>
@@ -4349,7 +4349,7 @@
         <v>102100</v>
       </c>
     </row>
-    <row r="56" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>28555</v>
       </c>
@@ -4420,7 +4420,7 @@
         <v>102101</v>
       </c>
     </row>
-    <row r="57" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>29068</v>
       </c>
@@ -4491,7 +4491,7 @@
         <v>102102</v>
       </c>
     </row>
-    <row r="58" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>29581</v>
       </c>
@@ -4562,7 +4562,7 @@
         <v>102103</v>
       </c>
     </row>
-    <row r="59" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>30094</v>
       </c>
@@ -4633,7 +4633,7 @@
         <v>102104</v>
       </c>
     </row>
-    <row r="60" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>30607</v>
       </c>
@@ -4704,7 +4704,7 @@
         <v>102105</v>
       </c>
     </row>
-    <row r="61" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>31120</v>
       </c>
@@ -4775,7 +4775,7 @@
         <v>102106</v>
       </c>
     </row>
-    <row r="62" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>31633</v>
       </c>
@@ -4846,7 +4846,7 @@
         <v>102107</v>
       </c>
     </row>
-    <row r="63" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>32146</v>
       </c>
@@ -4917,7 +4917,7 @@
         <v>102108</v>
       </c>
     </row>
-    <row r="64" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>32659</v>
       </c>
@@ -4988,7 +4988,7 @@
         <v>102109</v>
       </c>
     </row>
-    <row r="65" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>33172</v>
       </c>
@@ -5059,7 +5059,7 @@
         <v>102110</v>
       </c>
     </row>
-    <row r="66" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>33685</v>
       </c>
@@ -5130,7 +5130,7 @@
         <v>102111</v>
       </c>
     </row>
-    <row r="67" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>34198</v>
       </c>
@@ -5201,7 +5201,7 @@
         <v>102112</v>
       </c>
     </row>
-    <row r="68" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>34711</v>
       </c>
@@ -5272,7 +5272,7 @@
         <v>102113</v>
       </c>
     </row>
-    <row r="69" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>35224</v>
       </c>
@@ -5343,7 +5343,7 @@
         <v>102114</v>
       </c>
     </row>
-    <row r="70" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>35737</v>
       </c>
@@ -5414,7 +5414,7 @@
         <v>102115</v>
       </c>
     </row>
-    <row r="71" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>36250</v>
       </c>
@@ -5485,7 +5485,7 @@
         <v>102116</v>
       </c>
     </row>
-    <row r="72" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>36763</v>
       </c>
@@ -5556,7 +5556,7 @@
         <v>102117</v>
       </c>
     </row>
-    <row r="73" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>37276</v>
       </c>
@@ -5627,7 +5627,7 @@
         <v>102118</v>
       </c>
     </row>
-    <row r="74" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>37789</v>
       </c>
@@ -5698,7 +5698,7 @@
         <v>102119</v>
       </c>
     </row>
-    <row r="75" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>38302</v>
       </c>
@@ -5769,7 +5769,7 @@
         <v>102120</v>
       </c>
     </row>
-    <row r="76" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>39841</v>
       </c>
@@ -5840,7 +5840,7 @@
         <v>102123</v>
       </c>
     </row>
-    <row r="77" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>40354</v>
       </c>
@@ -5911,7 +5911,7 @@
         <v>102124</v>
       </c>
     </row>
-    <row r="78" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>40867</v>
       </c>
@@ -5982,7 +5982,7 @@
         <v>102125</v>
       </c>
     </row>
-    <row r="79" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>41380</v>
       </c>
@@ -6053,7 +6053,7 @@
         <v>102126</v>
       </c>
     </row>
-    <row r="80" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>41893</v>
       </c>
@@ -6124,7 +6124,7 @@
         <v>102127</v>
       </c>
     </row>
-    <row r="81" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>42406</v>
       </c>
@@ -6195,7 +6195,7 @@
         <v>102128</v>
       </c>
     </row>
-    <row r="82" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>42919</v>
       </c>
@@ -6266,7 +6266,7 @@
         <v>102129</v>
       </c>
     </row>
-    <row r="83" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>43945</v>
       </c>
@@ -6337,7 +6337,7 @@
         <v>102131</v>
       </c>
     </row>
-    <row r="84" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>44458</v>
       </c>
@@ -6408,7 +6408,7 @@
         <v>102132</v>
       </c>
     </row>
-    <row r="85" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>44971</v>
       </c>
@@ -6479,7 +6479,7 @@
         <v>102133</v>
       </c>
     </row>
-    <row r="86" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>45484</v>
       </c>
@@ -6550,7 +6550,7 @@
         <v>102134</v>
       </c>
     </row>
-    <row r="87" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>45997</v>
       </c>
@@ -6621,7 +6621,7 @@
         <v>102135</v>
       </c>
     </row>
-    <row r="88" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>46510</v>
       </c>
@@ -6692,7 +6692,7 @@
         <v>102136</v>
       </c>
     </row>
-    <row r="89" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>47023</v>
       </c>
@@ -6763,7 +6763,7 @@
         <v>102137</v>
       </c>
     </row>
-    <row r="90" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>47536</v>
       </c>
@@ -6834,7 +6834,7 @@
         <v>102138</v>
       </c>
     </row>
-    <row r="91" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>48049</v>
       </c>
@@ -6905,7 +6905,7 @@
         <v>102139</v>
       </c>
     </row>
-    <row r="92" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>48562</v>
       </c>
@@ -6976,7 +6976,7 @@
         <v>102140</v>
       </c>
     </row>
-    <row r="93" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>49075</v>
       </c>
@@ -7047,7 +7047,7 @@
         <v>102141</v>
       </c>
     </row>
-    <row r="94" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>49588</v>
       </c>
@@ -7118,7 +7118,7 @@
         <v>102142</v>
       </c>
     </row>
-    <row r="95" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>50101</v>
       </c>
@@ -7189,7 +7189,7 @@
         <v>102143</v>
       </c>
     </row>
-    <row r="96" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>50614</v>
       </c>
@@ -7260,7 +7260,7 @@
         <v>102144</v>
       </c>
     </row>
-    <row r="97" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>51640</v>
       </c>
@@ -7331,7 +7331,7 @@
         <v>102146</v>
       </c>
     </row>
-    <row r="98" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>52153</v>
       </c>
@@ -7402,7 +7402,7 @@
         <v>102147</v>
       </c>
     </row>
-    <row r="99" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>52666</v>
       </c>
@@ -7473,7 +7473,7 @@
         <v>102148</v>
       </c>
     </row>
-    <row r="100" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>53179</v>
       </c>
@@ -7544,7 +7544,7 @@
         <v>102149</v>
       </c>
     </row>
-    <row r="101" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>53692</v>
       </c>
@@ -7615,7 +7615,7 @@
         <v>102150</v>
       </c>
     </row>
-    <row r="102" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>54205</v>
       </c>
@@ -7686,7 +7686,7 @@
         <v>102151</v>
       </c>
     </row>
-    <row r="103" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>54718</v>
       </c>
@@ -7757,7 +7757,7 @@
         <v>102152</v>
       </c>
     </row>
-    <row r="104" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>55231</v>
       </c>
@@ -7828,7 +7828,7 @@
         <v>102153</v>
       </c>
     </row>
-    <row r="105" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>55744</v>
       </c>
@@ -7899,7 +7899,7 @@
         <v>102154</v>
       </c>
     </row>
-    <row r="106" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>56257</v>
       </c>
@@ -7970,7 +7970,7 @@
         <v>102155</v>
       </c>
     </row>
-    <row r="107" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>56770</v>
       </c>
@@ -8041,7 +8041,7 @@
         <v>102156</v>
       </c>
     </row>
-    <row r="108" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>57283</v>
       </c>
@@ -8112,7 +8112,7 @@
         <v>102157</v>
       </c>
     </row>
-    <row r="109" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>58309</v>
       </c>
@@ -8183,7 +8183,7 @@
         <v>102159</v>
       </c>
     </row>
-    <row r="110" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>58822</v>
       </c>
@@ -8254,7 +8254,7 @@
         <v>102200</v>
       </c>
     </row>
-    <row r="111" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>59335</v>
       </c>
@@ -8325,7 +8325,7 @@
         <v>102201</v>
       </c>
     </row>
-    <row r="112" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>59848</v>
       </c>
@@ -8396,7 +8396,7 @@
         <v>102202</v>
       </c>
     </row>
-    <row r="113" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>60361</v>
       </c>
@@ -8467,7 +8467,7 @@
         <v>102203</v>
       </c>
     </row>
-    <row r="114" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>60874</v>
       </c>
@@ -8538,7 +8538,7 @@
         <v>102204</v>
       </c>
     </row>
-    <row r="115" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>61387</v>
       </c>
@@ -8609,7 +8609,7 @@
         <v>102205</v>
       </c>
     </row>
-    <row r="116" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>61900</v>
       </c>
@@ -8680,7 +8680,7 @@
         <v>102206</v>
       </c>
     </row>
-    <row r="117" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>62413</v>
       </c>
@@ -8751,7 +8751,7 @@
         <v>102207</v>
       </c>
     </row>
-    <row r="118" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>62926</v>
       </c>
@@ -8822,7 +8822,7 @@
         <v>102208</v>
       </c>
     </row>
-    <row r="119" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>63439</v>
       </c>
@@ -8893,7 +8893,7 @@
         <v>102209</v>
       </c>
     </row>
-    <row r="120" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>63952</v>
       </c>
@@ -8964,7 +8964,7 @@
         <v>102210</v>
       </c>
     </row>
-    <row r="121" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>64465</v>
       </c>
@@ -9035,7 +9035,7 @@
         <v>102211</v>
       </c>
     </row>
-    <row r="122" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>64978</v>
       </c>
@@ -9106,7 +9106,7 @@
         <v>102212</v>
       </c>
     </row>
-    <row r="123" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>65491</v>
       </c>
@@ -9177,7 +9177,7 @@
         <v>102213</v>
       </c>
     </row>
-    <row r="124" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>66004</v>
       </c>
@@ -9248,7 +9248,7 @@
         <v>102214</v>
       </c>
     </row>
-    <row r="125" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>66517</v>
       </c>
@@ -9319,7 +9319,7 @@
         <v>102215</v>
       </c>
     </row>
-    <row r="126" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>67030</v>
       </c>
@@ -9390,7 +9390,7 @@
         <v>102216</v>
       </c>
     </row>
-    <row r="127" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>67543</v>
       </c>
@@ -9461,7 +9461,7 @@
         <v>102217</v>
       </c>
     </row>
-    <row r="128" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>68056</v>
       </c>
@@ -9532,7 +9532,7 @@
         <v>102218</v>
       </c>
     </row>
-    <row r="129" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>68569</v>
       </c>
@@ -9603,7 +9603,7 @@
         <v>102219</v>
       </c>
     </row>
-    <row r="130" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>69082</v>
       </c>
@@ -9674,7 +9674,7 @@
         <v>102220</v>
       </c>
     </row>
-    <row r="131" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>69595</v>
       </c>
@@ -9745,7 +9745,7 @@
         <v>102221</v>
       </c>
     </row>
-    <row r="132" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>70108</v>
       </c>
@@ -9816,7 +9816,7 @@
         <v>102222</v>
       </c>
     </row>
-    <row r="133" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>70621</v>
       </c>
@@ -9887,7 +9887,7 @@
         <v>102223</v>
       </c>
     </row>
-    <row r="134" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>71134</v>
       </c>
@@ -9958,7 +9958,7 @@
         <v>102224</v>
       </c>
     </row>
-    <row r="135" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>71647</v>
       </c>
@@ -10029,7 +10029,7 @@
         <v>102225</v>
       </c>
     </row>
-    <row r="136" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>72160</v>
       </c>
@@ -10100,7 +10100,7 @@
         <v>102226</v>
       </c>
     </row>
-    <row r="137" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>72673</v>
       </c>
@@ -10171,7 +10171,7 @@
         <v>102227</v>
       </c>
     </row>
-    <row r="138" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>73186</v>
       </c>
@@ -10242,7 +10242,7 @@
         <v>102228</v>
       </c>
     </row>
-    <row r="139" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>73699</v>
       </c>
@@ -10313,7 +10313,7 @@
         <v>102229</v>
       </c>
     </row>
-    <row r="140" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>74212</v>
       </c>
@@ -10384,7 +10384,7 @@
         <v>102230</v>
       </c>
     </row>
-    <row r="141" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>74725</v>
       </c>
@@ -10455,7 +10455,7 @@
         <v>102231</v>
       </c>
     </row>
-    <row r="142" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>75238</v>
       </c>
@@ -10526,7 +10526,7 @@
         <v>102232</v>
       </c>
     </row>
-    <row r="143" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>75751</v>
       </c>
@@ -10597,7 +10597,7 @@
         <v>102233</v>
       </c>
     </row>
-    <row r="144" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>76264</v>
       </c>
@@ -10668,7 +10668,7 @@
         <v>102234</v>
       </c>
     </row>
-    <row r="145" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>76777</v>
       </c>
@@ -10739,7 +10739,7 @@
         <v>102235</v>
       </c>
     </row>
-    <row r="146" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>77290</v>
       </c>
@@ -10810,7 +10810,7 @@
         <v>102236</v>
       </c>
     </row>
-    <row r="147" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>77803</v>
       </c>
@@ -10881,7 +10881,7 @@
         <v>102237</v>
       </c>
     </row>
-    <row r="148" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>78316</v>
       </c>
@@ -10952,7 +10952,7 @@
         <v>102238</v>
       </c>
     </row>
-    <row r="149" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>78829</v>
       </c>
@@ -11023,7 +11023,7 @@
         <v>102239</v>
       </c>
     </row>
-    <row r="150" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>79342</v>
       </c>
@@ -11094,7 +11094,7 @@
         <v>102240</v>
       </c>
     </row>
-    <row r="151" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>79855</v>
       </c>
@@ -11165,7 +11165,7 @@
         <v>102241</v>
       </c>
     </row>
-    <row r="152" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>80368</v>
       </c>
@@ -11236,7 +11236,7 @@
         <v>102242</v>
       </c>
     </row>
-    <row r="153" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>81394</v>
       </c>
@@ -11307,7 +11307,7 @@
         <v>102244</v>
       </c>
     </row>
-    <row r="154" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>82420</v>
       </c>
@@ -11378,7 +11378,7 @@
         <v>102246</v>
       </c>
     </row>
-    <row r="155" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>82933</v>
       </c>
@@ -11449,7 +11449,7 @@
         <v>102247</v>
       </c>
     </row>
-    <row r="156" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>83446</v>
       </c>
@@ -11520,7 +11520,7 @@
         <v>102248</v>
       </c>
     </row>
-    <row r="157" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>83959</v>
       </c>
@@ -11591,7 +11591,7 @@
         <v>102249</v>
       </c>
     </row>
-    <row r="158" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A158">
         <v>84472</v>
       </c>
@@ -11662,7 +11662,7 @@
         <v>102250</v>
       </c>
     </row>
-    <row r="159" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A159">
         <v>84985</v>
       </c>
@@ -11733,7 +11733,7 @@
         <v>102251</v>
       </c>
     </row>
-    <row r="160" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A160">
         <v>85498</v>
       </c>
@@ -11804,7 +11804,7 @@
         <v>102252</v>
       </c>
     </row>
-    <row r="161" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A161">
         <v>86011</v>
       </c>
@@ -11875,7 +11875,7 @@
         <v>102253</v>
       </c>
     </row>
-    <row r="162" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A162">
         <v>86524</v>
       </c>
@@ -11946,7 +11946,7 @@
         <v>102254</v>
       </c>
     </row>
-    <row r="163" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A163">
         <v>87037</v>
       </c>
@@ -12017,7 +12017,7 @@
         <v>102255</v>
       </c>
     </row>
-    <row r="164" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A164">
         <v>87550</v>
       </c>
@@ -12088,7 +12088,7 @@
         <v>102256</v>
       </c>
     </row>
-    <row r="165" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A165">
         <v>88063</v>
       </c>
@@ -12159,7 +12159,7 @@
         <v>102257</v>
       </c>
     </row>
-    <row r="166" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A166">
         <v>88576</v>
       </c>
@@ -12230,7 +12230,7 @@
         <v>102258</v>
       </c>
     </row>
-    <row r="167" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A167">
         <v>89089</v>
       </c>
@@ -12301,7 +12301,7 @@
         <v>102259</v>
       </c>
     </row>
-    <row r="168" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A168">
         <v>89602</v>
       </c>
@@ -12372,7 +12372,7 @@
         <v>102300</v>
       </c>
     </row>
-    <row r="169" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A169">
         <v>90115</v>
       </c>
@@ -12443,7 +12443,7 @@
         <v>102301</v>
       </c>
     </row>
-    <row r="170" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="170" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A170">
         <v>90628</v>
       </c>
@@ -12514,7 +12514,7 @@
         <v>102302</v>
       </c>
     </row>
-    <row r="171" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="171" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A171">
         <v>91141</v>
       </c>
@@ -12585,7 +12585,7 @@
         <v>102303</v>
       </c>
     </row>
-    <row r="172" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="172" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A172">
         <v>91654</v>
       </c>
@@ -12656,7 +12656,7 @@
         <v>102304</v>
       </c>
     </row>
-    <row r="173" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="173" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A173">
         <v>92167</v>
       </c>
@@ -12727,7 +12727,7 @@
         <v>102305</v>
       </c>
     </row>
-    <row r="174" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="174" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A174">
         <v>92680</v>
       </c>
@@ -12798,7 +12798,7 @@
         <v>102306</v>
       </c>
     </row>
-    <row r="175" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="175" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A175">
         <v>93193</v>
       </c>
@@ -12869,7 +12869,7 @@
         <v>102307</v>
       </c>
     </row>
-    <row r="176" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="176" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A176">
         <v>93706</v>
       </c>
@@ -12940,7 +12940,7 @@
         <v>102308</v>
       </c>
     </row>
-    <row r="177" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="177" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A177">
         <v>94219</v>
       </c>
@@ -13011,7 +13011,7 @@
         <v>102309</v>
       </c>
     </row>
-    <row r="178" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="178" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A178">
         <v>94732</v>
       </c>
@@ -13082,7 +13082,7 @@
         <v>102310</v>
       </c>
     </row>
-    <row r="179" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="179" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A179">
         <v>95758</v>
       </c>
@@ -13153,7 +13153,7 @@
         <v>102312</v>
       </c>
     </row>
-    <row r="180" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="180" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A180">
         <v>96271</v>
       </c>
@@ -13224,7 +13224,7 @@
         <v>102313</v>
       </c>
     </row>
-    <row r="181" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="181" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A181">
         <v>96784</v>
       </c>
@@ -13295,7 +13295,7 @@
         <v>102314</v>
       </c>
     </row>
-    <row r="182" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="182" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A182">
         <v>97297</v>
       </c>
@@ -13366,7 +13366,7 @@
         <v>102315</v>
       </c>
     </row>
-    <row r="183" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="183" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A183">
         <v>97810</v>
       </c>
@@ -13437,7 +13437,7 @@
         <v>102316</v>
       </c>
     </row>
-    <row r="184" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="184" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A184">
         <v>98323</v>
       </c>
@@ -13508,7 +13508,7 @@
         <v>102317</v>
       </c>
     </row>
-    <row r="185" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="185" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A185">
         <v>98836</v>
       </c>
@@ -13579,7 +13579,7 @@
         <v>102318</v>
       </c>
     </row>
-    <row r="186" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="186" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A186">
         <v>99349</v>
       </c>
@@ -13650,7 +13650,7 @@
         <v>102319</v>
       </c>
     </row>
-    <row r="187" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="187" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A187">
         <v>99862</v>
       </c>
@@ -13721,7 +13721,7 @@
         <v>102320</v>
       </c>
     </row>
-    <row r="188" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="188" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A188">
         <v>100375</v>
       </c>
@@ -13792,7 +13792,7 @@
         <v>102321</v>
       </c>
     </row>
-    <row r="189" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="189" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A189">
         <v>100888</v>
       </c>
@@ -13863,7 +13863,7 @@
         <v>102322</v>
       </c>
     </row>
-    <row r="190" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="190" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A190">
         <v>101401</v>
       </c>
@@ -13934,7 +13934,7 @@
         <v>102323</v>
       </c>
     </row>
-    <row r="191" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="191" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A191">
         <v>101914</v>
       </c>
@@ -14005,7 +14005,7 @@
         <v>102324</v>
       </c>
     </row>
-    <row r="192" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="192" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A192">
         <v>102427</v>
       </c>
@@ -14076,7 +14076,7 @@
         <v>102325</v>
       </c>
     </row>
-    <row r="193" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="193" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A193">
         <v>102940</v>
       </c>
@@ -14147,7 +14147,7 @@
         <v>102326</v>
       </c>
     </row>
-    <row r="194" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="194" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A194">
         <v>103453</v>
       </c>
@@ -14218,7 +14218,7 @@
         <v>102327</v>
       </c>
     </row>
-    <row r="195" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="195" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A195">
         <v>103966</v>
       </c>
@@ -14289,7 +14289,7 @@
         <v>102328</v>
       </c>
     </row>
-    <row r="196" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="196" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A196">
         <v>104479</v>
       </c>
@@ -14360,7 +14360,7 @@
         <v>102329</v>
       </c>
     </row>
-    <row r="197" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="197" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A197">
         <v>104992</v>
       </c>
@@ -14431,7 +14431,7 @@
         <v>102330</v>
       </c>
     </row>
-    <row r="198" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="198" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A198">
         <v>105505</v>
       </c>
@@ -14502,7 +14502,7 @@
         <v>102331</v>
       </c>
     </row>
-    <row r="199" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="199" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A199">
         <v>106018</v>
       </c>
@@ -14573,7 +14573,7 @@
         <v>102332</v>
       </c>
     </row>
-    <row r="200" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="200" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A200">
         <v>106531</v>
       </c>
@@ -14644,7 +14644,7 @@
         <v>102333</v>
       </c>
     </row>
-    <row r="201" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="201" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A201">
         <v>107044</v>
       </c>
@@ -14715,7 +14715,7 @@
         <v>102334</v>
       </c>
     </row>
-    <row r="202" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="202" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A202">
         <v>107557</v>
       </c>
@@ -14786,7 +14786,7 @@
         <v>102335</v>
       </c>
     </row>
-    <row r="203" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="203" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A203">
         <v>108070</v>
       </c>
@@ -14857,7 +14857,7 @@
         <v>102336</v>
       </c>
     </row>
-    <row r="204" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="204" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A204">
         <v>108583</v>
       </c>
@@ -14928,7 +14928,7 @@
         <v>102337</v>
       </c>
     </row>
-    <row r="205" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="205" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A205">
         <v>109096</v>
       </c>
@@ -14999,7 +14999,7 @@
         <v>102338</v>
       </c>
     </row>
-    <row r="206" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="206" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A206">
         <v>109609</v>
       </c>
@@ -15070,7 +15070,7 @@
         <v>102339</v>
       </c>
     </row>
-    <row r="207" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="207" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A207">
         <v>110122</v>
       </c>
@@ -15141,7 +15141,7 @@
         <v>102340</v>
       </c>
     </row>
-    <row r="208" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="208" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A208">
         <v>110635</v>
       </c>
@@ -15212,7 +15212,7 @@
         <v>102341</v>
       </c>
     </row>
-    <row r="209" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="209" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A209">
         <v>111148</v>
       </c>
@@ -15283,7 +15283,7 @@
         <v>102342</v>
       </c>
     </row>
-    <row r="210" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="210" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A210">
         <v>111661</v>
       </c>
@@ -15354,7 +15354,7 @@
         <v>102343</v>
       </c>
     </row>
-    <row r="211" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="211" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A211">
         <v>112174</v>
       </c>
@@ -15425,7 +15425,7 @@
         <v>102344</v>
       </c>
     </row>
-    <row r="212" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="212" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A212">
         <v>112687</v>
       </c>
@@ -15496,7 +15496,7 @@
         <v>102345</v>
       </c>
     </row>
-    <row r="213" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="213" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A213">
         <v>113200</v>
       </c>
@@ -15567,7 +15567,7 @@
         <v>102346</v>
       </c>
     </row>
-    <row r="214" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="214" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A214">
         <v>113713</v>
       </c>
@@ -15638,7 +15638,7 @@
         <v>102347</v>
       </c>
     </row>
-    <row r="215" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="215" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A215">
         <v>114226</v>
       </c>
@@ -15709,7 +15709,7 @@
         <v>102348</v>
       </c>
     </row>
-    <row r="216" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="216" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A216">
         <v>114739</v>
       </c>
@@ -15780,7 +15780,7 @@
         <v>102349</v>
       </c>
     </row>
-    <row r="217" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="217" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A217">
         <v>115252</v>
       </c>
@@ -15851,7 +15851,7 @@
         <v>102350</v>
       </c>
     </row>
-    <row r="218" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="218" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A218">
         <v>115765</v>
       </c>
@@ -15922,7 +15922,7 @@
         <v>102351</v>
       </c>
     </row>
-    <row r="219" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="219" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A219">
         <v>116278</v>
       </c>
@@ -15993,7 +15993,7 @@
         <v>102352</v>
       </c>
     </row>
-    <row r="220" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="220" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A220">
         <v>116791</v>
       </c>
@@ -16064,7 +16064,7 @@
         <v>102353</v>
       </c>
     </row>
-    <row r="221" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="221" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A221">
         <v>117304</v>
       </c>
@@ -16135,7 +16135,7 @@
         <v>102354</v>
       </c>
     </row>
-    <row r="222" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="222" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A222">
         <v>117817</v>
       </c>
@@ -16206,7 +16206,7 @@
         <v>102355</v>
       </c>
     </row>
-    <row r="223" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="223" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A223">
         <v>118330</v>
       </c>
@@ -16277,7 +16277,7 @@
         <v>102356</v>
       </c>
     </row>
-    <row r="224" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="224" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A224">
         <v>118843</v>
       </c>
@@ -16348,7 +16348,7 @@
         <v>102357</v>
       </c>
     </row>
-    <row r="225" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="225" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A225">
         <v>119356</v>
       </c>
@@ -16419,7 +16419,7 @@
         <v>102358</v>
       </c>
     </row>
-    <row r="226" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="226" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A226">
         <v>119869</v>
       </c>
@@ -16490,7 +16490,7 @@
         <v>102359</v>
       </c>
     </row>
-    <row r="227" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="227" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A227">
         <v>120382</v>
       </c>
@@ -16561,7 +16561,7 @@
         <v>102400</v>
       </c>
     </row>
-    <row r="228" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="228" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A228">
         <v>120895</v>
       </c>
@@ -16632,7 +16632,7 @@
         <v>102401</v>
       </c>
     </row>
-    <row r="229" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="229" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A229">
         <v>121408</v>
       </c>
@@ -16703,7 +16703,7 @@
         <v>102402</v>
       </c>
     </row>
-    <row r="230" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="230" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A230">
         <v>121921</v>
       </c>
@@ -16774,7 +16774,7 @@
         <v>102403</v>
       </c>
     </row>
-    <row r="231" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="231" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A231">
         <v>122434</v>
       </c>
@@ -16845,7 +16845,7 @@
         <v>102404</v>
       </c>
     </row>
-    <row r="232" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="232" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A232">
         <v>122947</v>
       </c>
@@ -16916,7 +16916,7 @@
         <v>102405</v>
       </c>
     </row>
-    <row r="233" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="233" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A233">
         <v>123460</v>
       </c>
@@ -16987,7 +16987,7 @@
         <v>102406</v>
       </c>
     </row>
-    <row r="234" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="234" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A234">
         <v>123973</v>
       </c>
@@ -17058,7 +17058,7 @@
         <v>102407</v>
       </c>
     </row>
-    <row r="235" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="235" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A235">
         <v>124486</v>
       </c>
@@ -17129,7 +17129,7 @@
         <v>102408</v>
       </c>
     </row>
-    <row r="236" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="236" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A236">
         <v>124999</v>
       </c>
@@ -17200,7 +17200,7 @@
         <v>102409</v>
       </c>
     </row>
-    <row r="237" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="237" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A237">
         <v>125512</v>
       </c>
@@ -17271,7 +17271,7 @@
         <v>102410</v>
       </c>
     </row>
-    <row r="238" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="238" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A238">
         <v>126025</v>
       </c>
@@ -17342,7 +17342,7 @@
         <v>102411</v>
       </c>
     </row>
-    <row r="239" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="239" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A239">
         <v>126538</v>
       </c>
@@ -17413,7 +17413,7 @@
         <v>102412</v>
       </c>
     </row>
-    <row r="240" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="240" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A240">
         <v>127051</v>
       </c>
@@ -17484,7 +17484,7 @@
         <v>102413</v>
       </c>
     </row>
-    <row r="241" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="241" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A241">
         <v>127564</v>
       </c>
@@ -17555,7 +17555,7 @@
         <v>102414</v>
       </c>
     </row>
-    <row r="242" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="242" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A242">
         <v>128077</v>
       </c>
@@ -17626,7 +17626,7 @@
         <v>102415</v>
       </c>
     </row>
-    <row r="243" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="243" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A243">
         <v>128590</v>
       </c>
@@ -17697,7 +17697,7 @@
         <v>102415</v>
       </c>
     </row>
-    <row r="244" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="244" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A244">
         <v>129103</v>
       </c>
@@ -17768,7 +17768,7 @@
         <v>102416</v>
       </c>
     </row>
-    <row r="245" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="245" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A245">
         <v>129616</v>
       </c>
@@ -17839,7 +17839,7 @@
         <v>102417</v>
       </c>
     </row>
-    <row r="246" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="246" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A246">
         <v>130129</v>
       </c>
@@ -17910,7 +17910,7 @@
         <v>102418</v>
       </c>
     </row>
-    <row r="247" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="247" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A247">
         <v>130642</v>
       </c>
@@ -17981,7 +17981,7 @@
         <v>102419</v>
       </c>
     </row>
-    <row r="248" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="248" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A248">
         <v>131155</v>
       </c>
@@ -18052,7 +18052,7 @@
         <v>102420</v>
       </c>
     </row>
-    <row r="249" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="249" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A249">
         <v>131668</v>
       </c>
@@ -18123,7 +18123,7 @@
         <v>102421</v>
       </c>
     </row>
-    <row r="250" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="250" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A250">
         <v>132181</v>
       </c>
@@ -18194,7 +18194,7 @@
         <v>102422</v>
       </c>
     </row>
-    <row r="251" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="251" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A251">
         <v>132694</v>
       </c>
@@ -18265,7 +18265,7 @@
         <v>102423</v>
       </c>
     </row>
-    <row r="252" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="252" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A252">
         <v>133207</v>
       </c>
@@ -18336,7 +18336,7 @@
         <v>102424</v>
       </c>
     </row>
-    <row r="253" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="253" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A253">
         <v>133720</v>
       </c>
@@ -18407,7 +18407,7 @@
         <v>102425</v>
       </c>
     </row>
-    <row r="254" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="254" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A254">
         <v>134233</v>
       </c>
@@ -18478,7 +18478,7 @@
         <v>102426</v>
       </c>
     </row>
-    <row r="255" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="255" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A255">
         <v>134746</v>
       </c>
@@ -18549,7 +18549,7 @@
         <v>102427</v>
       </c>
     </row>
-    <row r="256" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="256" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A256">
         <v>135259</v>
       </c>
@@ -18620,7 +18620,7 @@
         <v>102428</v>
       </c>
     </row>
-    <row r="257" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="257" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A257">
         <v>135772</v>
       </c>
@@ -18691,7 +18691,7 @@
         <v>102429</v>
       </c>
     </row>
-    <row r="258" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="258" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A258">
         <v>136285</v>
       </c>
@@ -18762,7 +18762,7 @@
         <v>102430</v>
       </c>
     </row>
-    <row r="259" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="259" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A259">
         <v>136798</v>
       </c>
@@ -18833,7 +18833,7 @@
         <v>102431</v>
       </c>
     </row>
-    <row r="260" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="260" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A260">
         <v>137311</v>
       </c>
@@ -18904,7 +18904,7 @@
         <v>102432</v>
       </c>
     </row>
-    <row r="261" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="261" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A261">
         <v>137824</v>
       </c>
@@ -18975,7 +18975,7 @@
         <v>102433</v>
       </c>
     </row>
-    <row r="262" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="262" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A262">
         <v>138337</v>
       </c>
@@ -19046,7 +19046,7 @@
         <v>102434</v>
       </c>
     </row>
-    <row r="263" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="263" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A263">
         <v>138850</v>
       </c>
@@ -19117,7 +19117,7 @@
         <v>102435</v>
       </c>
     </row>
-    <row r="264" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="264" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A264">
         <v>139363</v>
       </c>
@@ -19188,7 +19188,7 @@
         <v>102436</v>
       </c>
     </row>
-    <row r="265" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="265" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A265">
         <v>139876</v>
       </c>
@@ -19259,7 +19259,7 @@
         <v>102437</v>
       </c>
     </row>
-    <row r="266" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="266" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A266">
         <v>140389</v>
       </c>
@@ -19330,7 +19330,7 @@
         <v>102438</v>
       </c>
     </row>
-    <row r="267" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="267" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A267">
         <v>140902</v>
       </c>
@@ -19401,7 +19401,7 @@
         <v>102439</v>
       </c>
     </row>
-    <row r="268" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="268" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A268">
         <v>141415</v>
       </c>
@@ -19472,7 +19472,7 @@
         <v>102440</v>
       </c>
     </row>
-    <row r="269" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="269" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A269">
         <v>141928</v>
       </c>
@@ -19543,7 +19543,7 @@
         <v>102441</v>
       </c>
     </row>
-    <row r="270" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="270" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A270">
         <v>142441</v>
       </c>
@@ -19614,7 +19614,7 @@
         <v>102442</v>
       </c>
     </row>
-    <row r="271" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="271" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A271">
         <v>142954</v>
       </c>
@@ -19685,7 +19685,7 @@
         <v>102443</v>
       </c>
     </row>
-    <row r="272" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="272" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A272">
         <v>143467</v>
       </c>
@@ -19756,7 +19756,7 @@
         <v>102444</v>
       </c>
     </row>
-    <row r="273" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="273" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A273">
         <v>143980</v>
       </c>
@@ -19827,7 +19827,7 @@
         <v>102445</v>
       </c>
     </row>
-    <row r="274" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="274" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A274">
         <v>144493</v>
       </c>
@@ -19898,7 +19898,7 @@
         <v>102446</v>
       </c>
     </row>
-    <row r="275" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="275" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A275">
         <v>145006</v>
       </c>
@@ -19969,7 +19969,7 @@
         <v>102447</v>
       </c>
     </row>
-    <row r="276" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="276" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A276">
         <v>145519</v>
       </c>
@@ -20040,7 +20040,7 @@
         <v>102448</v>
       </c>
     </row>
-    <row r="277" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="277" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A277">
         <v>146032</v>
       </c>
@@ -20111,7 +20111,7 @@
         <v>102449</v>
       </c>
     </row>
-    <row r="278" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="278" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A278">
         <v>146545</v>
       </c>
@@ -20182,7 +20182,7 @@
         <v>102450</v>
       </c>
     </row>
-    <row r="279" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="279" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A279">
         <v>147058</v>
       </c>
@@ -20253,7 +20253,7 @@
         <v>102451</v>
       </c>
     </row>
-    <row r="280" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="280" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A280">
         <v>147571</v>
       </c>
@@ -20324,7 +20324,7 @@
         <v>102452</v>
       </c>
     </row>
-    <row r="281" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="281" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A281">
         <v>148084</v>
       </c>
@@ -20395,7 +20395,7 @@
         <v>102453</v>
       </c>
     </row>
-    <row r="282" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="282" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A282">
         <v>148597</v>
       </c>
@@ -20466,7 +20466,7 @@
         <v>102454</v>
       </c>
     </row>
-    <row r="283" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="283" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A283">
         <v>149110</v>
       </c>
@@ -20537,7 +20537,7 @@
         <v>102455</v>
       </c>
     </row>
-    <row r="284" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="284" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A284">
         <v>149623</v>
       </c>
@@ -20608,7 +20608,7 @@
         <v>102456</v>
       </c>
     </row>
-    <row r="285" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="285" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A285">
         <v>150136</v>
       </c>
@@ -20679,7 +20679,7 @@
         <v>102457</v>
       </c>
     </row>
-    <row r="286" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="286" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A286">
         <v>150649</v>
       </c>
@@ -20750,7 +20750,7 @@
         <v>102458</v>
       </c>
     </row>
-    <row r="287" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="287" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A287">
         <v>151162</v>
       </c>
@@ -20821,7 +20821,7 @@
         <v>102459</v>
       </c>
     </row>
-    <row r="288" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="288" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A288">
         <v>151675</v>
       </c>
@@ -20892,7 +20892,7 @@
         <v>102500</v>
       </c>
     </row>
-    <row r="289" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="289" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A289">
         <v>152188</v>
       </c>
@@ -20963,7 +20963,7 @@
         <v>102501</v>
       </c>
     </row>
-    <row r="290" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="290" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A290">
         <v>152701</v>
       </c>
@@ -21034,7 +21034,7 @@
         <v>102502</v>
       </c>
     </row>
-    <row r="291" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="291" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A291">
         <v>153214</v>
       </c>
@@ -21105,7 +21105,7 @@
         <v>102503</v>
       </c>
     </row>
-    <row r="292" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="292" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A292">
         <v>153727</v>
       </c>
@@ -21176,7 +21176,7 @@
         <v>102504</v>
       </c>
     </row>
-    <row r="293" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="293" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A293">
         <v>154240</v>
       </c>
@@ -21247,7 +21247,7 @@
         <v>102505</v>
       </c>
     </row>
-    <row r="294" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="294" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A294">
         <v>154753</v>
       </c>
@@ -21318,7 +21318,7 @@
         <v>102506</v>
       </c>
     </row>
-    <row r="295" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="295" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A295">
         <v>155266</v>
       </c>
@@ -21389,7 +21389,7 @@
         <v>102507</v>
       </c>
     </row>
-    <row r="296" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="296" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A296">
         <v>155779</v>
       </c>
@@ -21460,7 +21460,7 @@
         <v>102508</v>
       </c>
     </row>
-    <row r="297" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="297" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A297">
         <v>156292</v>
       </c>
@@ -21531,7 +21531,7 @@
         <v>102509</v>
       </c>
     </row>
-    <row r="298" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="298" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A298">
         <v>156805</v>
       </c>
@@ -21602,7 +21602,7 @@
         <v>102510</v>
       </c>
     </row>
-    <row r="299" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="299" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A299">
         <v>157318</v>
       </c>
@@ -21673,7 +21673,7 @@
         <v>102511</v>
       </c>
     </row>
-    <row r="300" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="300" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A300">
         <v>157831</v>
       </c>
@@ -21744,7 +21744,7 @@
         <v>102512</v>
       </c>
     </row>
-    <row r="301" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="301" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A301">
         <v>158344</v>
       </c>
@@ -21815,7 +21815,7 @@
         <v>102513</v>
       </c>
     </row>
-    <row r="302" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="302" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A302">
         <v>158857</v>
       </c>
@@ -21886,7 +21886,7 @@
         <v>102514</v>
       </c>
     </row>
-    <row r="303" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="303" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A303">
         <v>159370</v>
       </c>
@@ -21957,7 +21957,7 @@
         <v>102515</v>
       </c>
     </row>
-    <row r="304" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="304" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A304">
         <v>159883</v>
       </c>
@@ -22028,7 +22028,7 @@
         <v>102516</v>
       </c>
     </row>
-    <row r="305" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="305" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A305">
         <v>160396</v>
       </c>
@@ -22099,7 +22099,7 @@
         <v>102517</v>
       </c>
     </row>
-    <row r="306" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="306" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A306">
         <v>160909</v>
       </c>
@@ -22170,7 +22170,7 @@
         <v>102518</v>
       </c>
     </row>
-    <row r="307" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="307" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A307">
         <v>161422</v>
       </c>
@@ -22241,7 +22241,7 @@
         <v>102519</v>
       </c>
     </row>
-    <row r="308" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="308" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A308">
         <v>161935</v>
       </c>
@@ -22312,7 +22312,7 @@
         <v>102520</v>
       </c>
     </row>
-    <row r="309" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="309" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A309">
         <v>162448</v>
       </c>
@@ -22383,7 +22383,7 @@
         <v>102521</v>
       </c>
     </row>
-    <row r="310" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="310" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A310">
         <v>162961</v>
       </c>
@@ -22454,7 +22454,7 @@
         <v>102522</v>
       </c>
     </row>
-    <row r="311" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="311" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A311">
         <v>163474</v>
       </c>
@@ -22525,7 +22525,7 @@
         <v>102523</v>
       </c>
     </row>
-    <row r="312" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="312" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A312">
         <v>163987</v>
       </c>
@@ -22596,7 +22596,7 @@
         <v>102524</v>
       </c>
     </row>
-    <row r="313" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="313" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A313">
         <v>164500</v>
       </c>
@@ -22667,7 +22667,7 @@
         <v>102525</v>
       </c>
     </row>
-    <row r="314" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="314" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A314">
         <v>165013</v>
       </c>
@@ -22738,7 +22738,7 @@
         <v>102526</v>
       </c>
     </row>
-    <row r="315" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="315" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A315">
         <v>165526</v>
       </c>
@@ -22809,7 +22809,7 @@
         <v>102527</v>
       </c>
     </row>
-    <row r="316" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="316" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A316">
         <v>166039</v>
       </c>
@@ -22880,7 +22880,7 @@
         <v>102528</v>
       </c>
     </row>
-    <row r="317" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="317" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A317">
         <v>166552</v>
       </c>
@@ -22951,7 +22951,7 @@
         <v>102529</v>
       </c>
     </row>
-    <row r="318" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="318" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A318">
         <v>167065</v>
       </c>
@@ -23022,7 +23022,7 @@
         <v>102530</v>
       </c>
     </row>
-    <row r="319" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="319" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A319">
         <v>167578</v>
       </c>
@@ -23093,7 +23093,7 @@
         <v>102531</v>
       </c>
     </row>
-    <row r="320" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="320" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A320">
         <v>168091</v>
       </c>
@@ -23164,7 +23164,7 @@
         <v>102532</v>
       </c>
     </row>
-    <row r="321" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="321" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A321">
         <v>168604</v>
       </c>
@@ -23235,7 +23235,7 @@
         <v>102533</v>
       </c>
     </row>
-    <row r="322" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="322" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A322">
         <v>169117</v>
       </c>
@@ -23306,7 +23306,7 @@
         <v>102534</v>
       </c>
     </row>
-    <row r="323" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="323" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A323">
         <v>169630</v>
       </c>
@@ -23377,7 +23377,7 @@
         <v>102535</v>
       </c>
     </row>
-    <row r="324" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="324" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A324">
         <v>170143</v>
       </c>
@@ -23448,7 +23448,7 @@
         <v>102536</v>
       </c>
     </row>
-    <row r="325" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="325" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A325">
         <v>170656</v>
       </c>
@@ -23519,7 +23519,7 @@
         <v>102537</v>
       </c>
     </row>
-    <row r="326" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="326" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A326">
         <v>171169</v>
       </c>
@@ -23590,7 +23590,7 @@
         <v>102538</v>
       </c>
     </row>
-    <row r="327" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="327" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A327">
         <v>171682</v>
       </c>
@@ -23661,7 +23661,7 @@
         <v>102539</v>
       </c>
     </row>
-    <row r="328" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="328" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A328">
         <v>172195</v>
       </c>
@@ -23732,7 +23732,7 @@
         <v>102540</v>
       </c>
     </row>
-    <row r="329" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="329" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A329">
         <v>172708</v>
       </c>
@@ -23803,7 +23803,7 @@
         <v>102541</v>
       </c>
     </row>
-    <row r="330" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="330" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A330">
         <v>173221</v>
       </c>
@@ -23874,7 +23874,7 @@
         <v>102542</v>
       </c>
     </row>
-    <row r="331" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="331" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A331">
         <v>173734</v>
       </c>
@@ -23945,7 +23945,7 @@
         <v>102543</v>
       </c>
     </row>
-    <row r="332" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="332" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A332">
         <v>174247</v>
       </c>
@@ -24016,7 +24016,7 @@
         <v>102544</v>
       </c>
     </row>
-    <row r="333" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="333" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A333">
         <v>174760</v>
       </c>
@@ -24087,7 +24087,7 @@
         <v>102545</v>
       </c>
     </row>
-    <row r="334" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="334" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A334">
         <v>175273</v>
       </c>
@@ -24158,7 +24158,7 @@
         <v>102546</v>
       </c>
     </row>
-    <row r="335" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="335" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A335">
         <v>175786</v>
       </c>
@@ -24229,7 +24229,7 @@
         <v>102547</v>
       </c>
     </row>
-    <row r="336" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="336" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A336">
         <v>176299</v>
       </c>
@@ -24300,7 +24300,7 @@
         <v>102548</v>
       </c>
     </row>
-    <row r="337" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="337" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A337">
         <v>176812</v>
       </c>
@@ -24371,7 +24371,7 @@
         <v>102549</v>
       </c>
     </row>
-    <row r="338" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="338" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A338">
         <v>177325</v>
       </c>
@@ -24442,7 +24442,7 @@
         <v>102550</v>
       </c>
     </row>
-    <row r="339" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="339" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A339">
         <v>177838</v>
       </c>
@@ -24513,7 +24513,7 @@
         <v>102551</v>
       </c>
     </row>
-    <row r="340" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="340" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A340">
         <v>178351</v>
       </c>
@@ -24584,7 +24584,7 @@
         <v>102552</v>
       </c>
     </row>
-    <row r="341" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="341" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A341">
         <v>178864</v>
       </c>
@@ -24655,7 +24655,7 @@
         <v>102553</v>
       </c>
     </row>
-    <row r="342" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="342" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A342">
         <v>179377</v>
       </c>
@@ -24726,7 +24726,7 @@
         <v>102554</v>
       </c>
     </row>
-    <row r="343" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="343" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A343">
         <v>179890</v>
       </c>
@@ -24797,7 +24797,7 @@
         <v>102555</v>
       </c>
     </row>
-    <row r="344" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="344" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A344">
         <v>180403</v>
       </c>
@@ -24868,7 +24868,7 @@
         <v>102556</v>
       </c>
     </row>
-    <row r="345" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="345" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A345">
         <v>180916</v>
       </c>
@@ -24939,7 +24939,7 @@
         <v>102557</v>
       </c>
     </row>
-    <row r="346" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="346" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A346">
         <v>181429</v>
       </c>
@@ -25010,7 +25010,7 @@
         <v>102558</v>
       </c>
     </row>
-    <row r="347" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="347" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A347">
         <v>181942</v>
       </c>
@@ -25081,7 +25081,7 @@
         <v>102559</v>
       </c>
     </row>
-    <row r="348" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="348" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A348">
         <v>182455</v>
       </c>
@@ -25152,7 +25152,7 @@
         <v>102600</v>
       </c>
     </row>
-    <row r="349" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="349" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A349">
         <v>182968</v>
       </c>
@@ -25223,7 +25223,7 @@
         <v>102601</v>
       </c>
     </row>
-    <row r="350" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="350" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A350">
         <v>183481</v>
       </c>
@@ -25294,7 +25294,7 @@
         <v>102602</v>
       </c>
     </row>
-    <row r="351" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="351" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A351">
         <v>183994</v>
       </c>
@@ -25365,7 +25365,7 @@
         <v>102603</v>
       </c>
     </row>
-    <row r="352" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="352" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A352">
         <v>184507</v>
       </c>
@@ -25436,7 +25436,7 @@
         <v>102604</v>
       </c>
     </row>
-    <row r="353" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="353" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A353">
         <v>185020</v>
       </c>
@@ -25507,7 +25507,7 @@
         <v>102605</v>
       </c>
     </row>
-    <row r="354" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="354" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A354">
         <v>185533</v>
       </c>
@@ -25578,7 +25578,7 @@
         <v>102606</v>
       </c>
     </row>
-    <row r="355" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="355" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A355">
         <v>186046</v>
       </c>
@@ -25649,7 +25649,7 @@
         <v>102607</v>
       </c>
     </row>
-    <row r="356" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="356" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A356">
         <v>186559</v>
       </c>
@@ -25720,7 +25720,7 @@
         <v>102608</v>
       </c>
     </row>
-    <row r="357" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="357" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A357">
         <v>187072</v>
       </c>
@@ -25791,7 +25791,7 @@
         <v>102609</v>
       </c>
     </row>
-    <row r="358" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="358" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A358">
         <v>187585</v>
       </c>
@@ -25862,7 +25862,7 @@
         <v>102610</v>
       </c>
     </row>
-    <row r="359" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="359" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A359">
         <v>188098</v>
       </c>
@@ -25933,7 +25933,7 @@
         <v>102611</v>
       </c>
     </row>
-    <row r="360" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="360" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A360">
         <v>188611</v>
       </c>
@@ -26004,7 +26004,7 @@
         <v>102612</v>
       </c>
     </row>
-    <row r="361" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="361" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A361">
         <v>189124</v>
       </c>
@@ -26075,7 +26075,7 @@
         <v>102613</v>
       </c>
     </row>
-    <row r="362" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="362" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A362">
         <v>189637</v>
       </c>
@@ -26146,7 +26146,7 @@
         <v>102614</v>
       </c>
     </row>
-    <row r="363" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="363" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A363">
         <v>190150</v>
       </c>
@@ -26217,7 +26217,7 @@
         <v>102615</v>
       </c>
     </row>
-    <row r="364" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="364" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A364">
         <v>190663</v>
       </c>
@@ -26288,7 +26288,7 @@
         <v>102616</v>
       </c>
     </row>
-    <row r="365" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="365" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A365">
         <v>191176</v>
       </c>
@@ -26359,7 +26359,7 @@
         <v>102617</v>
       </c>
     </row>
-    <row r="366" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="366" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A366">
         <v>191689</v>
       </c>
@@ -26430,7 +26430,7 @@
         <v>102618</v>
       </c>
     </row>
-    <row r="367" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="367" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A367">
         <v>192202</v>
       </c>
@@ -26501,7 +26501,7 @@
         <v>102619</v>
       </c>
     </row>
-    <row r="368" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="368" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A368">
         <v>192715</v>
       </c>
@@ -26572,7 +26572,7 @@
         <v>102620</v>
       </c>
     </row>
-    <row r="369" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="369" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A369">
         <v>193228</v>
       </c>
@@ -26643,7 +26643,7 @@
         <v>102621</v>
       </c>
     </row>
-    <row r="370" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="370" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A370">
         <v>193741</v>
       </c>
@@ -26714,7 +26714,7 @@
         <v>102622</v>
       </c>
     </row>
-    <row r="371" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="371" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A371">
         <v>194254</v>
       </c>
@@ -26785,7 +26785,7 @@
         <v>102623</v>
       </c>
     </row>
-    <row r="372" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="372" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A372">
         <v>194767</v>
       </c>
@@ -26856,7 +26856,7 @@
         <v>102624</v>
       </c>
     </row>
-    <row r="373" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="373" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A373">
         <v>195280</v>
       </c>
@@ -26927,7 +26927,7 @@
         <v>102625</v>
       </c>
     </row>
-    <row r="374" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="374" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A374">
         <v>195793</v>
       </c>
@@ -26998,7 +26998,7 @@
         <v>102626</v>
       </c>
     </row>
-    <row r="375" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="375" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A375">
         <v>196306</v>
       </c>
@@ -27069,7 +27069,7 @@
         <v>102627</v>
       </c>
     </row>
-    <row r="376" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="376" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A376">
         <v>196819</v>
       </c>
@@ -27140,7 +27140,7 @@
         <v>102628</v>
       </c>
     </row>
-    <row r="377" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="377" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A377">
         <v>197332</v>
       </c>
@@ -27211,7 +27211,7 @@
         <v>102629</v>
       </c>
     </row>
-    <row r="378" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="378" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A378">
         <v>197845</v>
       </c>
@@ -27282,7 +27282,7 @@
         <v>102630</v>
       </c>
     </row>
-    <row r="379" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="379" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A379">
         <v>198358</v>
       </c>
@@ -27353,7 +27353,7 @@
         <v>102631</v>
       </c>
     </row>
-    <row r="380" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="380" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A380">
         <v>198871</v>
       </c>
@@ -27424,7 +27424,7 @@
         <v>102632</v>
       </c>
     </row>
-    <row r="381" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="381" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A381">
         <v>199384</v>
       </c>
@@ -27495,7 +27495,7 @@
         <v>102633</v>
       </c>
     </row>
-    <row r="382" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="382" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A382">
         <v>199897</v>
       </c>
@@ -27566,7 +27566,7 @@
         <v>102634</v>
       </c>
     </row>
-    <row r="383" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="383" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A383">
         <v>200410</v>
       </c>
@@ -27637,7 +27637,7 @@
         <v>102635</v>
       </c>
     </row>
-    <row r="384" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="384" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A384">
         <v>200923</v>
       </c>
@@ -27708,7 +27708,7 @@
         <v>102636</v>
       </c>
     </row>
-    <row r="385" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="385" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A385">
         <v>201436</v>
       </c>
@@ -27779,7 +27779,7 @@
         <v>102637</v>
       </c>
     </row>
-    <row r="386" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="386" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A386">
         <v>201949</v>
       </c>
@@ -27850,7 +27850,7 @@
         <v>102638</v>
       </c>
     </row>
-    <row r="387" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="387" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A387">
         <v>202462</v>
       </c>
@@ -27921,7 +27921,7 @@
         <v>102639</v>
       </c>
     </row>
-    <row r="388" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="388" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A388">
         <v>202975</v>
       </c>
@@ -27992,7 +27992,7 @@
         <v>102640</v>
       </c>
     </row>
-    <row r="389" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="389" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A389">
         <v>203488</v>
       </c>
@@ -28063,7 +28063,7 @@
         <v>102641</v>
       </c>
     </row>
-    <row r="390" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="390" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A390">
         <v>204001</v>
       </c>
@@ -28134,7 +28134,7 @@
         <v>102642</v>
       </c>
     </row>
-    <row r="391" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="391" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A391">
         <v>204514</v>
       </c>
@@ -28205,7 +28205,7 @@
         <v>102643</v>
       </c>
     </row>
-    <row r="392" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="392" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A392">
         <v>205027</v>
       </c>
@@ -28276,7 +28276,7 @@
         <v>102644</v>
       </c>
     </row>
-    <row r="393" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="393" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A393">
         <v>205540</v>
       </c>
@@ -28347,7 +28347,7 @@
         <v>102645</v>
       </c>
     </row>
-    <row r="394" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="394" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A394">
         <v>206053</v>
       </c>
@@ -28418,7 +28418,7 @@
         <v>102646</v>
       </c>
     </row>
-    <row r="395" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="395" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A395">
         <v>206566</v>
       </c>
@@ -28489,7 +28489,7 @@
         <v>102647</v>
       </c>
     </row>
-    <row r="396" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="396" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A396">
         <v>207079</v>
       </c>
@@ -28560,7 +28560,7 @@
         <v>102648</v>
       </c>
     </row>
-    <row r="397" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="397" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A397">
         <v>207592</v>
       </c>
@@ -28631,7 +28631,7 @@
         <v>102649</v>
       </c>
     </row>
-    <row r="398" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="398" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A398">
         <v>208105</v>
       </c>
@@ -28702,7 +28702,7 @@
         <v>102650</v>
       </c>
     </row>
-    <row r="399" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="399" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A399">
         <v>208618</v>
       </c>
@@ -28773,7 +28773,7 @@
         <v>102651</v>
       </c>
     </row>
-    <row r="400" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="400" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A400">
         <v>209131</v>
       </c>
@@ -28844,7 +28844,7 @@
         <v>102652</v>
       </c>
     </row>
-    <row r="401" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="401" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A401">
         <v>209644</v>
       </c>
@@ -28915,7 +28915,7 @@
         <v>102653</v>
       </c>
     </row>
-    <row r="402" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="402" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A402">
         <v>210157</v>
       </c>
@@ -28986,7 +28986,7 @@
         <v>102654</v>
       </c>
     </row>
-    <row r="403" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="403" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A403">
         <v>210670</v>
       </c>
@@ -29057,7 +29057,7 @@
         <v>102655</v>
       </c>
     </row>
-    <row r="404" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="404" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A404">
         <v>211183</v>
       </c>
@@ -29128,7 +29128,7 @@
         <v>102656</v>
       </c>
     </row>
-    <row r="405" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="405" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A405">
         <v>211696</v>
       </c>
@@ -29199,7 +29199,7 @@
         <v>102657</v>
       </c>
     </row>
-    <row r="406" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="406" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A406">
         <v>212209</v>
       </c>
@@ -29270,7 +29270,7 @@
         <v>102658</v>
       </c>
     </row>
-    <row r="407" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="407" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A407">
         <v>212722</v>
       </c>
@@ -29341,7 +29341,7 @@
         <v>102659</v>
       </c>
     </row>
-    <row r="408" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="408" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A408">
         <v>213235</v>
       </c>
@@ -29412,7 +29412,7 @@
         <v>102700</v>
       </c>
     </row>
-    <row r="409" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="409" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A409">
         <v>213748</v>
       </c>
@@ -29483,7 +29483,7 @@
         <v>102701</v>
       </c>
     </row>
-    <row r="410" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="410" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A410">
         <v>214261</v>
       </c>
@@ -29554,7 +29554,7 @@
         <v>102702</v>
       </c>
     </row>
-    <row r="411" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="411" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A411">
         <v>214774</v>
       </c>
@@ -29625,7 +29625,7 @@
         <v>102703</v>
       </c>
     </row>
-    <row r="412" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="412" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A412">
         <v>215287</v>
       </c>
@@ -29696,7 +29696,7 @@
         <v>102704</v>
       </c>
     </row>
-    <row r="413" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="413" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A413">
         <v>215800</v>
       </c>
@@ -29767,7 +29767,7 @@
         <v>102705</v>
       </c>
     </row>
-    <row r="414" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="414" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A414">
         <v>216313</v>
       </c>
@@ -29838,7 +29838,7 @@
         <v>102706</v>
       </c>
     </row>
-    <row r="415" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="415" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A415">
         <v>216826</v>
       </c>
@@ -29909,7 +29909,7 @@
         <v>102707</v>
       </c>
     </row>
-    <row r="416" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="416" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A416">
         <v>217339</v>
       </c>
@@ -29980,7 +29980,7 @@
         <v>102708</v>
       </c>
     </row>
-    <row r="417" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="417" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A417">
         <v>217852</v>
       </c>
@@ -30051,7 +30051,7 @@
         <v>102709</v>
       </c>
     </row>
-    <row r="418" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="418" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A418">
         <v>218365</v>
       </c>
@@ -30122,7 +30122,7 @@
         <v>102710</v>
       </c>
     </row>
-    <row r="419" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="419" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A419">
         <v>218878</v>
       </c>
@@ -30193,7 +30193,7 @@
         <v>102711</v>
       </c>
     </row>
-    <row r="420" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="420" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A420">
         <v>219391</v>
       </c>
@@ -30264,7 +30264,7 @@
         <v>102712</v>
       </c>
     </row>
-    <row r="421" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="421" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A421">
         <v>219904</v>
       </c>
@@ -30335,7 +30335,7 @@
         <v>102713</v>
       </c>
     </row>
-    <row r="422" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="422" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A422">
         <v>220417</v>
       </c>
@@ -30406,7 +30406,7 @@
         <v>102714</v>
       </c>
     </row>
-    <row r="423" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="423" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A423">
         <v>220930</v>
       </c>
@@ -30477,7 +30477,7 @@
         <v>102715</v>
       </c>
     </row>
-    <row r="424" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="424" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A424">
         <v>221443</v>
       </c>
@@ -30548,7 +30548,7 @@
         <v>102716</v>
       </c>
     </row>
-    <row r="425" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="425" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A425">
         <v>221956</v>
       </c>
@@ -30619,7 +30619,7 @@
         <v>102717</v>
       </c>
     </row>
-    <row r="426" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="426" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A426">
         <v>222469</v>
       </c>
@@ -30690,7 +30690,7 @@
         <v>102718</v>
       </c>
     </row>
-    <row r="427" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="427" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A427">
         <v>222982</v>
       </c>
@@ -30761,7 +30761,7 @@
         <v>102719</v>
       </c>
     </row>
-    <row r="428" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="428" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A428">
         <v>223495</v>
       </c>
@@ -30832,7 +30832,7 @@
         <v>102720</v>
       </c>
     </row>
-    <row r="429" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="429" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A429">
         <v>224008</v>
       </c>
@@ -30903,7 +30903,7 @@
         <v>102721</v>
       </c>
     </row>
-    <row r="430" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="430" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A430">
         <v>224521</v>
       </c>
@@ -30974,7 +30974,7 @@
         <v>102722</v>
       </c>
     </row>
-    <row r="431" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="431" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A431">
         <v>225034</v>
       </c>
@@ -31045,7 +31045,7 @@
         <v>102723</v>
       </c>
     </row>
-    <row r="432" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="432" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A432">
         <v>225547</v>
       </c>
@@ -31116,7 +31116,7 @@
         <v>102724</v>
       </c>
     </row>
-    <row r="433" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="433" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A433">
         <v>226060</v>
       </c>
@@ -31187,7 +31187,7 @@
         <v>102725</v>
       </c>
     </row>
-    <row r="434" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="434" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A434">
         <v>226573</v>
       </c>
@@ -31258,7 +31258,7 @@
         <v>102726</v>
       </c>
     </row>
-    <row r="435" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="435" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A435">
         <v>227086</v>
       </c>
@@ -31329,7 +31329,7 @@
         <v>102727</v>
       </c>
     </row>
-    <row r="436" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="436" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A436">
         <v>227599</v>
       </c>
@@ -31400,7 +31400,7 @@
         <v>102728</v>
       </c>
     </row>
-    <row r="437" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="437" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A437">
         <v>228112</v>
       </c>
@@ -31471,7 +31471,7 @@
         <v>102729</v>
       </c>
     </row>
-    <row r="438" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="438" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A438">
         <v>228625</v>
       </c>
@@ -31542,7 +31542,7 @@
         <v>102730</v>
       </c>
     </row>
-    <row r="439" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="439" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A439">
         <v>229138</v>
       </c>
@@ -31613,7 +31613,7 @@
         <v>102731</v>
       </c>
     </row>
-    <row r="440" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="440" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A440">
         <v>229651</v>
       </c>
@@ -31684,7 +31684,7 @@
         <v>102731</v>
       </c>
     </row>
-    <row r="441" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="441" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A441">
         <v>230164</v>
       </c>
@@ -31755,7 +31755,7 @@
         <v>102733</v>
       </c>
     </row>
-    <row r="442" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="442" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A442">
         <v>230677</v>
       </c>
@@ -31826,7 +31826,7 @@
         <v>102734</v>
       </c>
     </row>
-    <row r="443" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="443" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A443">
         <v>231190</v>
       </c>
@@ -31897,7 +31897,7 @@
         <v>102734</v>
       </c>
     </row>
-    <row r="444" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="444" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A444">
         <v>231703</v>
       </c>
@@ -31968,7 +31968,7 @@
         <v>102735</v>
       </c>
     </row>
-    <row r="445" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="445" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A445">
         <v>232216</v>
       </c>
@@ -32039,7 +32039,7 @@
         <v>102736</v>
       </c>
     </row>
-    <row r="446" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="446" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A446">
         <v>232729</v>
       </c>
@@ -32110,7 +32110,7 @@
         <v>102737</v>
       </c>
     </row>
-    <row r="447" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="447" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A447">
         <v>233242</v>
       </c>
@@ -32181,7 +32181,7 @@
         <v>102738</v>
       </c>
     </row>
-    <row r="448" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="448" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A448">
         <v>233755</v>
       </c>
@@ -32252,7 +32252,7 @@
         <v>102739</v>
       </c>
     </row>
-    <row r="449" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="449" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A449">
         <v>234268</v>
       </c>
@@ -32323,7 +32323,7 @@
         <v>102740</v>
       </c>
     </row>
-    <row r="450" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="450" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A450">
         <v>234781</v>
       </c>
@@ -32394,7 +32394,7 @@
         <v>102741</v>
       </c>
     </row>
-    <row r="451" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="451" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A451">
         <v>235294</v>
       </c>
@@ -32465,7 +32465,7 @@
         <v>102742</v>
       </c>
     </row>
-    <row r="452" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="452" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A452">
         <v>235807</v>
       </c>
@@ -32536,7 +32536,7 @@
         <v>102743</v>
       </c>
     </row>
-    <row r="453" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="453" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A453">
         <v>236320</v>
       </c>
@@ -32607,7 +32607,7 @@
         <v>102744</v>
       </c>
     </row>
-    <row r="454" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="454" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A454">
         <v>236833</v>
       </c>
@@ -32678,7 +32678,7 @@
         <v>102745</v>
       </c>
     </row>
-    <row r="455" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="455" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A455">
         <v>237346</v>
       </c>
@@ -32749,7 +32749,7 @@
         <v>102746</v>
       </c>
     </row>
-    <row r="456" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="456" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A456">
         <v>237859</v>
       </c>
@@ -32820,7 +32820,7 @@
         <v>102747</v>
       </c>
     </row>
-    <row r="457" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="457" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A457">
         <v>238372</v>
       </c>
@@ -32891,7 +32891,7 @@
         <v>102748</v>
       </c>
     </row>
-    <row r="458" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="458" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A458">
         <v>238885</v>
       </c>
@@ -32962,7 +32962,7 @@
         <v>102749</v>
       </c>
     </row>
-    <row r="459" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="459" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A459">
         <v>239398</v>
       </c>
@@ -33033,7 +33033,7 @@
         <v>102750</v>
       </c>
     </row>
-    <row r="460" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="460" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A460">
         <v>239911</v>
       </c>
@@ -33104,7 +33104,7 @@
         <v>102751</v>
       </c>
     </row>
-    <row r="461" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="461" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A461">
         <v>240424</v>
       </c>
@@ -33175,7 +33175,7 @@
         <v>102752</v>
       </c>
     </row>
-    <row r="462" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="462" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A462">
         <v>240937</v>
       </c>
@@ -33246,7 +33246,7 @@
         <v>102753</v>
       </c>
     </row>
-    <row r="463" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="463" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A463">
         <v>241450</v>
       </c>
@@ -33317,7 +33317,7 @@
         <v>102754</v>
       </c>
     </row>
-    <row r="464" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="464" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A464">
         <v>241963</v>
       </c>
@@ -33388,7 +33388,7 @@
         <v>102755</v>
       </c>
     </row>
-    <row r="465" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="465" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A465">
         <v>242476</v>
       </c>
@@ -33459,7 +33459,7 @@
         <v>102756</v>
       </c>
     </row>
-    <row r="466" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="466" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A466">
         <v>242989</v>
       </c>
@@ -33530,7 +33530,7 @@
         <v>102757</v>
       </c>
     </row>
-    <row r="467" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="467" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A467">
         <v>243502</v>
       </c>
@@ -33601,7 +33601,7 @@
         <v>102758</v>
       </c>
     </row>
-    <row r="468" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="468" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A468">
         <v>244015</v>
       </c>
@@ -33672,7 +33672,7 @@
         <v>102759</v>
       </c>
     </row>
-    <row r="469" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="469" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A469">
         <v>244528</v>
       </c>
@@ -33743,7 +33743,7 @@
         <v>102800</v>
       </c>
     </row>
-    <row r="470" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="470" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A470">
         <v>245041</v>
       </c>
@@ -33814,7 +33814,7 @@
         <v>102801</v>
       </c>
     </row>
-    <row r="471" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="471" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A471">
         <v>245554</v>
       </c>
@@ -33885,7 +33885,7 @@
         <v>102802</v>
       </c>
     </row>
-    <row r="472" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="472" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A472">
         <v>246067</v>
       </c>
@@ -33956,7 +33956,7 @@
         <v>102803</v>
       </c>
     </row>
-    <row r="473" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="473" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A473">
         <v>246580</v>
       </c>
@@ -34027,7 +34027,7 @@
         <v>102804</v>
       </c>
     </row>
-    <row r="474" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="474" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A474">
         <v>247093</v>
       </c>
@@ -34098,7 +34098,7 @@
         <v>102805</v>
       </c>
     </row>
-    <row r="475" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="475" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A475">
         <v>247606</v>
       </c>
@@ -34169,7 +34169,7 @@
         <v>102806</v>
       </c>
     </row>
-    <row r="476" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="476" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A476">
         <v>248119</v>
       </c>
@@ -34240,7 +34240,7 @@
         <v>102807</v>
       </c>
     </row>
-    <row r="477" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="477" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A477">
         <v>248632</v>
       </c>
@@ -34311,7 +34311,7 @@
         <v>102808</v>
       </c>
     </row>
-    <row r="478" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="478" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A478">
         <v>249145</v>
       </c>
@@ -34382,7 +34382,7 @@
         <v>102809</v>
       </c>
     </row>
-    <row r="479" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="479" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A479">
         <v>249658</v>
       </c>
@@ -34453,7 +34453,7 @@
         <v>102810</v>
       </c>
     </row>
-    <row r="480" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="480" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A480">
         <v>250171</v>
       </c>
@@ -34524,7 +34524,7 @@
         <v>102811</v>
       </c>
     </row>
-    <row r="481" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="481" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A481">
         <v>250684</v>
       </c>
@@ -34595,7 +34595,7 @@
         <v>102812</v>
       </c>
     </row>
-    <row r="482" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="482" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A482">
         <v>251197</v>
       </c>
@@ -34666,7 +34666,7 @@
         <v>102813</v>
       </c>
     </row>
-    <row r="483" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="483" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A483">
         <v>251710</v>
       </c>
@@ -34737,7 +34737,7 @@
         <v>102814</v>
       </c>
     </row>
-    <row r="484" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="484" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A484">
         <v>252223</v>
       </c>
@@ -34808,7 +34808,7 @@
         <v>102815</v>
       </c>
     </row>
-    <row r="485" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="485" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A485">
         <v>252736</v>
       </c>
@@ -34879,7 +34879,7 @@
         <v>102816</v>
       </c>
     </row>
-    <row r="486" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="486" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A486">
         <v>253249</v>
       </c>
@@ -34950,7 +34950,7 @@
         <v>102817</v>
       </c>
     </row>
-    <row r="487" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="487" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A487">
         <v>253762</v>
       </c>
@@ -35021,7 +35021,7 @@
         <v>102818</v>
       </c>
     </row>
-    <row r="488" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="488" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A488">
         <v>254275</v>
       </c>
@@ -35092,7 +35092,7 @@
         <v>102819</v>
       </c>
     </row>
-    <row r="489" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="489" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A489">
         <v>254788</v>
       </c>
@@ -35163,7 +35163,7 @@
         <v>102820</v>
       </c>
     </row>
-    <row r="490" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="490" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A490">
         <v>255301</v>
       </c>
@@ -35234,7 +35234,7 @@
         <v>102821</v>
       </c>
     </row>
-    <row r="491" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="491" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A491">
         <v>255814</v>
       </c>
@@ -35305,7 +35305,7 @@
         <v>102822</v>
       </c>
     </row>
-    <row r="492" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="492" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A492">
         <v>256327</v>
       </c>
@@ -35376,7 +35376,7 @@
         <v>102823</v>
       </c>
     </row>
-    <row r="493" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="493" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A493">
         <v>256840</v>
       </c>
@@ -35447,7 +35447,7 @@
         <v>102824</v>
       </c>
     </row>
-    <row r="494" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="494" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A494">
         <v>257353</v>
       </c>
@@ -35518,7 +35518,7 @@
         <v>102825</v>
       </c>
     </row>
-    <row r="495" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="495" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A495">
         <v>257866</v>
       </c>
@@ -35589,7 +35589,7 @@
         <v>102826</v>
       </c>
     </row>
-    <row r="496" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="496" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A496">
         <v>258379</v>
       </c>
@@ -35660,7 +35660,7 @@
         <v>102827</v>
       </c>
     </row>
-    <row r="497" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="497" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A497">
         <v>258892</v>
       </c>
@@ -35731,7 +35731,7 @@
         <v>102828</v>
       </c>
     </row>
-    <row r="498" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="498" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A498">
         <v>259405</v>
       </c>
@@ -35802,7 +35802,7 @@
         <v>102829</v>
       </c>
     </row>
-    <row r="499" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="499" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A499">
         <v>259918</v>
       </c>
@@ -35873,7 +35873,7 @@
         <v>102830</v>
       </c>
     </row>
-    <row r="500" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="500" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A500">
         <v>260431</v>
       </c>
@@ -35944,7 +35944,7 @@
         <v>102831</v>
       </c>
     </row>
-    <row r="501" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="501" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A501">
         <v>260944</v>
       </c>
@@ -36015,7 +36015,7 @@
         <v>102832</v>
       </c>
     </row>
-    <row r="502" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="502" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A502">
         <v>261457</v>
       </c>
@@ -36086,7 +36086,7 @@
         <v>102833</v>
       </c>
     </row>
-    <row r="503" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="503" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A503">
         <v>261970</v>
       </c>
@@ -36157,7 +36157,7 @@
         <v>102834</v>
       </c>
     </row>
-    <row r="504" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="504" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A504">
         <v>262483</v>
       </c>
@@ -36228,7 +36228,7 @@
         <v>102835</v>
       </c>
     </row>
-    <row r="505" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="505" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A505">
         <v>262996</v>
       </c>
@@ -36299,7 +36299,7 @@
         <v>102836</v>
       </c>
     </row>
-    <row r="506" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="506" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A506">
         <v>263509</v>
       </c>
@@ -36370,7 +36370,7 @@
         <v>102837</v>
       </c>
     </row>
-    <row r="507" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="507" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A507">
         <v>264022</v>
       </c>
@@ -36441,7 +36441,7 @@
         <v>102838</v>
       </c>
     </row>
-    <row r="508" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="508" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A508">
         <v>264535</v>
       </c>
@@ -36512,7 +36512,7 @@
         <v>102839</v>
       </c>
     </row>
-    <row r="509" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="509" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A509">
         <v>265048</v>
       </c>
@@ -36583,7 +36583,7 @@
         <v>102840</v>
       </c>
     </row>
-    <row r="510" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="510" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A510">
         <v>265561</v>
       </c>
@@ -36654,7 +36654,7 @@
         <v>102841</v>
       </c>
     </row>
-    <row r="511" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="511" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A511">
         <v>266074</v>
       </c>
@@ -36725,7 +36725,7 @@
         <v>102842</v>
       </c>
     </row>
-    <row r="512" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="512" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A512">
         <v>266587</v>
       </c>
@@ -36796,7 +36796,7 @@
         <v>102843</v>
       </c>
     </row>
-    <row r="513" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="513" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A513">
         <v>267100</v>
       </c>
@@ -36867,7 +36867,7 @@
         <v>102844</v>
       </c>
     </row>
-    <row r="514" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="514" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A514">
         <v>267613</v>
       </c>
@@ -36938,7 +36938,7 @@
         <v>102845</v>
       </c>
     </row>
-    <row r="515" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="515" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A515">
         <v>268126</v>
       </c>
@@ -37009,7 +37009,7 @@
         <v>102846</v>
       </c>
     </row>
-    <row r="516" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="516" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A516">
         <v>268639</v>
       </c>
@@ -37080,7 +37080,7 @@
         <v>102847</v>
       </c>
     </row>
-    <row r="517" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="517" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A517">
         <v>269152</v>
       </c>
@@ -37151,7 +37151,7 @@
         <v>102848</v>
       </c>
     </row>
-    <row r="518" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="518" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A518">
         <v>269665</v>
       </c>
@@ -37222,7 +37222,7 @@
         <v>102849</v>
       </c>
     </row>
-    <row r="519" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="519" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A519">
         <v>270178</v>
       </c>
@@ -37293,7 +37293,7 @@
         <v>102850</v>
       </c>
     </row>
-    <row r="520" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="520" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A520">
         <v>270691</v>
       </c>
@@ -37364,7 +37364,7 @@
         <v>102851</v>
       </c>
     </row>
-    <row r="521" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="521" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A521">
         <v>271204</v>
       </c>
@@ -37435,7 +37435,7 @@
         <v>102852</v>
       </c>
     </row>
-    <row r="522" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="522" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A522">
         <v>271717</v>
       </c>
@@ -37506,7 +37506,7 @@
         <v>102853</v>
       </c>
     </row>
-    <row r="523" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="523" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A523">
         <v>272230</v>
       </c>
@@ -37577,7 +37577,7 @@
         <v>102854</v>
       </c>
     </row>
-    <row r="524" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="524" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A524">
         <v>272743</v>
       </c>
@@ -37648,7 +37648,7 @@
         <v>102855</v>
       </c>
     </row>
-    <row r="525" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="525" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A525">
         <v>273256</v>
       </c>
@@ -37719,7 +37719,7 @@
         <v>102856</v>
       </c>
     </row>
-    <row r="526" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="526" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A526">
         <v>273769</v>
       </c>
@@ -37790,7 +37790,7 @@
         <v>102857</v>
       </c>
     </row>
-    <row r="527" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="527" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A527">
         <v>274282</v>
       </c>
@@ -37861,7 +37861,7 @@
         <v>102858</v>
       </c>
     </row>
-    <row r="528" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="528" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A528">
         <v>274795</v>
       </c>
@@ -37932,7 +37932,7 @@
         <v>102859</v>
       </c>
     </row>
-    <row r="529" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="529" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A529">
         <v>275308</v>
       </c>
@@ -38003,7 +38003,7 @@
         <v>102900</v>
       </c>
     </row>
-    <row r="530" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="530" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A530">
         <v>275821</v>
       </c>
@@ -38074,7 +38074,7 @@
         <v>102901</v>
       </c>
     </row>
-    <row r="531" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="531" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A531">
         <v>276334</v>
       </c>
@@ -38145,7 +38145,7 @@
         <v>102902</v>
       </c>
     </row>
-    <row r="532" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="532" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A532">
         <v>276847</v>
       </c>
@@ -38216,7 +38216,7 @@
         <v>102903</v>
       </c>
     </row>
-    <row r="533" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="533" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A533">
         <v>277360</v>
       </c>
@@ -38287,7 +38287,7 @@
         <v>102904</v>
       </c>
     </row>
-    <row r="534" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="534" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A534">
         <v>277873</v>
       </c>
@@ -38358,7 +38358,7 @@
         <v>102905</v>
       </c>
     </row>
-    <row r="535" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="535" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A535">
         <v>278386</v>
       </c>
@@ -38429,7 +38429,7 @@
         <v>102906</v>
       </c>
     </row>
-    <row r="536" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="536" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A536">
         <v>278899</v>
       </c>
@@ -38500,7 +38500,7 @@
         <v>102907</v>
       </c>
     </row>
-    <row r="537" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="537" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A537">
         <v>279412</v>
       </c>
@@ -38571,7 +38571,7 @@
         <v>102908</v>
       </c>
     </row>
-    <row r="538" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="538" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A538">
         <v>279925</v>
       </c>
@@ -38642,7 +38642,7 @@
         <v>102909</v>
       </c>
     </row>
-    <row r="539" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="539" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A539">
         <v>280438</v>
       </c>
@@ -38713,7 +38713,7 @@
         <v>102910</v>
       </c>
     </row>
-    <row r="540" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="540" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A540">
         <v>280951</v>
       </c>
@@ -38784,7 +38784,7 @@
         <v>102911</v>
       </c>
     </row>
-    <row r="541" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="541" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A541">
         <v>281464</v>
       </c>
@@ -38855,7 +38855,7 @@
         <v>102912</v>
       </c>
     </row>
-    <row r="542" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="542" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A542">
         <v>281977</v>
       </c>
@@ -38926,7 +38926,7 @@
         <v>102913</v>
       </c>
     </row>
-    <row r="543" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="543" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A543">
         <v>282490</v>
       </c>
@@ -38997,7 +38997,7 @@
         <v>102914</v>
       </c>
     </row>
-    <row r="544" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="544" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A544">
         <v>283003</v>
       </c>
@@ -39068,7 +39068,7 @@
         <v>102915</v>
       </c>
     </row>
-    <row r="545" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="545" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A545">
         <v>283516</v>
       </c>
@@ -39139,7 +39139,7 @@
         <v>102916</v>
       </c>
     </row>
-    <row r="546" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="546" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A546">
         <v>284029</v>
       </c>
@@ -39210,7 +39210,7 @@
         <v>102917</v>
       </c>
     </row>
-    <row r="547" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="547" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A547">
         <v>284542</v>
       </c>
@@ -39281,7 +39281,7 @@
         <v>102918</v>
       </c>
     </row>
-    <row r="548" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="548" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A548">
         <v>285055</v>
       </c>
@@ -39352,7 +39352,7 @@
         <v>102919</v>
       </c>
     </row>
-    <row r="549" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="549" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A549">
         <v>285568</v>
       </c>
@@ -39423,7 +39423,7 @@
         <v>102920</v>
       </c>
     </row>
-    <row r="550" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="550" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A550">
         <v>286081</v>
       </c>
@@ -39494,7 +39494,7 @@
         <v>102921</v>
       </c>
     </row>
-    <row r="551" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="551" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A551">
         <v>286594</v>
       </c>
@@ -39565,7 +39565,7 @@
         <v>102922</v>
       </c>
     </row>
-    <row r="552" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="552" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A552">
         <v>287107</v>
       </c>
@@ -39636,7 +39636,7 @@
         <v>102923</v>
       </c>
     </row>
-    <row r="553" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="553" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A553">
         <v>287620</v>
       </c>
@@ -39707,7 +39707,7 @@
         <v>102924</v>
       </c>
     </row>
-    <row r="554" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="554" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A554">
         <v>288133</v>
       </c>
@@ -39778,7 +39778,7 @@
         <v>102925</v>
       </c>
     </row>
-    <row r="555" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="555" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A555">
         <v>288646</v>
       </c>
@@ -39849,7 +39849,7 @@
         <v>102926</v>
       </c>
     </row>
-    <row r="556" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="556" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A556">
         <v>289159</v>
       </c>
@@ -39920,7 +39920,7 @@
         <v>102927</v>
       </c>
     </row>
-    <row r="557" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="557" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A557">
         <v>289672</v>
       </c>
@@ -39991,7 +39991,7 @@
         <v>102928</v>
       </c>
     </row>
-    <row r="558" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="558" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A558">
         <v>290185</v>
       </c>
@@ -40062,7 +40062,7 @@
         <v>102929</v>
       </c>
     </row>
-    <row r="559" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="559" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A559">
         <v>290698</v>
       </c>
@@ -40133,7 +40133,7 @@
         <v>102930</v>
       </c>
     </row>
-    <row r="560" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="560" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A560">
         <v>291211</v>
       </c>
@@ -40204,7 +40204,7 @@
         <v>102931</v>
       </c>
     </row>
-    <row r="561" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="561" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A561">
         <v>291724</v>
       </c>
@@ -40275,7 +40275,7 @@
         <v>102932</v>
       </c>
     </row>
-    <row r="562" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="562" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A562">
         <v>292237</v>
       </c>
@@ -40346,7 +40346,7 @@
         <v>102933</v>
       </c>
     </row>
-    <row r="563" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="563" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A563">
         <v>292750</v>
       </c>
@@ -40417,7 +40417,7 @@
         <v>102934</v>
       </c>
     </row>
-    <row r="564" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="564" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A564">
         <v>293263</v>
       </c>
@@ -40488,7 +40488,7 @@
         <v>102935</v>
       </c>
     </row>
-    <row r="565" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="565" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A565">
         <v>293776</v>
       </c>
@@ -40559,7 +40559,7 @@
         <v>102936</v>
       </c>
     </row>
-    <row r="566" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="566" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A566">
         <v>294289</v>
       </c>
@@ -40630,7 +40630,7 @@
         <v>102937</v>
       </c>
     </row>
-    <row r="567" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="567" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A567">
         <v>294802</v>
       </c>
@@ -40701,7 +40701,7 @@
         <v>102938</v>
       </c>
     </row>
-    <row r="568" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="568" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A568">
         <v>295315</v>
       </c>
@@ -40772,7 +40772,7 @@
         <v>102939</v>
       </c>
     </row>
-    <row r="569" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="569" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A569">
         <v>295828</v>
       </c>
@@ -40843,7 +40843,7 @@
         <v>102940</v>
       </c>
     </row>
-    <row r="570" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="570" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A570">
         <v>296341</v>
       </c>
@@ -40914,7 +40914,7 @@
         <v>102941</v>
       </c>
     </row>
-    <row r="571" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="571" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A571">
         <v>296854</v>
       </c>
@@ -40985,7 +40985,7 @@
         <v>102942</v>
       </c>
     </row>
-    <row r="572" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="572" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A572">
         <v>297367</v>
       </c>
@@ -41056,7 +41056,7 @@
         <v>102943</v>
       </c>
     </row>
-    <row r="573" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="573" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A573">
         <v>297880</v>
       </c>
@@ -41127,7 +41127,7 @@
         <v>102944</v>
       </c>
     </row>
-    <row r="574" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="574" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A574">
         <v>298393</v>
       </c>
@@ -41198,7 +41198,7 @@
         <v>102945</v>
       </c>
     </row>
-    <row r="575" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="575" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A575">
         <v>298906</v>
       </c>
@@ -41269,7 +41269,7 @@
         <v>102946</v>
       </c>
     </row>
-    <row r="576" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="576" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A576">
         <v>299419</v>
       </c>
@@ -41340,7 +41340,7 @@
         <v>102947</v>
       </c>
     </row>
-    <row r="577" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="577" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A577">
         <v>299932</v>
       </c>
@@ -41411,7 +41411,7 @@
         <v>102948</v>
       </c>
     </row>
-    <row r="578" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="578" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A578">
         <v>300445</v>
       </c>
@@ -41482,7 +41482,7 @@
         <v>102949</v>
       </c>
     </row>
-    <row r="579" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="579" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A579">
         <v>300958</v>
       </c>
@@ -41553,7 +41553,7 @@
         <v>102950</v>
       </c>
     </row>
-    <row r="580" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="580" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A580">
         <v>301471</v>
       </c>
@@ -41624,7 +41624,7 @@
         <v>102951</v>
       </c>
     </row>
-    <row r="581" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="581" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A581">
         <v>301984</v>
       </c>
@@ -41695,7 +41695,7 @@
         <v>102952</v>
       </c>
     </row>
-    <row r="582" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="582" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A582">
         <v>302497</v>
       </c>
@@ -41766,7 +41766,7 @@
         <v>102953</v>
       </c>
     </row>
-    <row r="583" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="583" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A583">
         <v>303010</v>
       </c>
@@ -41837,7 +41837,7 @@
         <v>102954</v>
       </c>
     </row>
-    <row r="584" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="584" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A584">
         <v>303523</v>
       </c>
@@ -41908,7 +41908,7 @@
         <v>102955</v>
       </c>
     </row>
-    <row r="585" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="585" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A585">
         <v>304036</v>
       </c>
@@ -41979,7 +41979,7 @@
         <v>102956</v>
       </c>
     </row>
-    <row r="586" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="586" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A586">
         <v>304549</v>
       </c>
@@ -42050,7 +42050,7 @@
         <v>102957</v>
       </c>
     </row>
-    <row r="587" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="587" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A587">
         <v>305062</v>
       </c>
@@ -42121,7 +42121,7 @@
         <v>102958</v>
       </c>
     </row>
-    <row r="588" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="588" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A588">
         <v>305575</v>
       </c>
@@ -42192,7 +42192,7 @@
         <v>102959</v>
       </c>
     </row>
-    <row r="589" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="589" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A589">
         <v>306088</v>
       </c>
@@ -42263,7 +42263,7 @@
         <v>103000</v>
       </c>
     </row>
-    <row r="590" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="590" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A590">
         <v>306601</v>
       </c>
@@ -42334,7 +42334,7 @@
         <v>103001</v>
       </c>
     </row>
-    <row r="591" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="591" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A591">
         <v>307114</v>
       </c>
@@ -42405,7 +42405,7 @@
         <v>103002</v>
       </c>
     </row>
-    <row r="592" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="592" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A592">
         <v>307627</v>
       </c>
@@ -42476,7 +42476,7 @@
         <v>103003</v>
       </c>
     </row>
-    <row r="593" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="593" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A593">
         <v>308140</v>
       </c>
@@ -42547,7 +42547,7 @@
         <v>103004</v>
       </c>
     </row>
-    <row r="594" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="594" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A594">
         <v>308653</v>
       </c>
@@ -42618,7 +42618,7 @@
         <v>103005</v>
       </c>
     </row>
-    <row r="595" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="595" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A595">
         <v>309166</v>
       </c>
@@ -42689,7 +42689,7 @@
         <v>103006</v>
       </c>
     </row>
-    <row r="596" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="596" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A596">
         <v>309679</v>
       </c>
@@ -42760,7 +42760,7 @@
         <v>103007</v>
       </c>
     </row>
-    <row r="597" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="597" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A597">
         <v>310192</v>
       </c>
@@ -42831,7 +42831,7 @@
         <v>103008</v>
       </c>
     </row>
-    <row r="598" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="598" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A598">
         <v>310705</v>
       </c>
@@ -42902,7 +42902,7 @@
         <v>103009</v>
       </c>
     </row>
-    <row r="599" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="599" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A599">
         <v>311218</v>
       </c>
@@ -42973,7 +42973,7 @@
         <v>103010</v>
       </c>
     </row>
-    <row r="600" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="600" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A600">
         <v>311731</v>
       </c>
@@ -43044,7 +43044,7 @@
         <v>103011</v>
       </c>
     </row>
-    <row r="601" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="601" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A601">
         <v>312244</v>
       </c>
@@ -43115,7 +43115,7 @@
         <v>103012</v>
       </c>
     </row>
-    <row r="602" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="602" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A602">
         <v>312757</v>
       </c>
@@ -43186,7 +43186,7 @@
         <v>103013</v>
       </c>
     </row>
-    <row r="603" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="603" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A603">
         <v>313270</v>
       </c>
@@ -43257,7 +43257,7 @@
         <v>103014</v>
       </c>
     </row>
-    <row r="604" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="604" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A604">
         <v>313783</v>
       </c>
@@ -43328,7 +43328,7 @@
         <v>103015</v>
       </c>
     </row>
-    <row r="605" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="605" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A605">
         <v>314296</v>
       </c>
@@ -43399,7 +43399,7 @@
         <v>103016</v>
       </c>
     </row>
-    <row r="606" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="606" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A606">
         <v>314809</v>
       </c>
@@ -43470,7 +43470,7 @@
         <v>103017</v>
       </c>
     </row>
-    <row r="607" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="607" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A607">
         <v>315322</v>
       </c>
@@ -43541,7 +43541,7 @@
         <v>103018</v>
       </c>
     </row>
-    <row r="608" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="608" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A608">
         <v>315835</v>
       </c>
@@ -43612,7 +43612,7 @@
         <v>103019</v>
       </c>
     </row>
-    <row r="609" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="609" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A609">
         <v>316348</v>
       </c>
@@ -43683,7 +43683,7 @@
         <v>103020</v>
       </c>
     </row>
-    <row r="610" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="610" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A610">
         <v>316861</v>
       </c>
@@ -43754,7 +43754,7 @@
         <v>103021</v>
       </c>
     </row>
-    <row r="611" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="611" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A611">
         <v>317374</v>
       </c>
@@ -43825,7 +43825,7 @@
         <v>103022</v>
       </c>
     </row>
-    <row r="612" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="612" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A612">
         <v>317887</v>
       </c>
@@ -43896,7 +43896,7 @@
         <v>103023</v>
       </c>
     </row>
-    <row r="613" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="613" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A613">
         <v>318400</v>
       </c>
@@ -43967,7 +43967,7 @@
         <v>103024</v>
       </c>
     </row>
-    <row r="614" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="614" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A614">
         <v>318913</v>
       </c>
@@ -44038,7 +44038,7 @@
         <v>103025</v>
       </c>
     </row>
-    <row r="615" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="615" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A615">
         <v>319426</v>
       </c>
@@ -44109,7 +44109,7 @@
         <v>103026</v>
       </c>
     </row>
-    <row r="616" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="616" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A616">
         <v>319939</v>
       </c>
@@ -44180,7 +44180,7 @@
         <v>103027</v>
       </c>
     </row>
-    <row r="617" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="617" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A617">
         <v>320452</v>
       </c>
@@ -44251,7 +44251,7 @@
         <v>103028</v>
       </c>
     </row>
-    <row r="618" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="618" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A618">
         <v>320965</v>
       </c>
@@ -44322,7 +44322,7 @@
         <v>103029</v>
       </c>
     </row>
-    <row r="619" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="619" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A619">
         <v>321478</v>
       </c>
@@ -44393,7 +44393,7 @@
         <v>103030</v>
       </c>
     </row>
-    <row r="620" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="620" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A620">
         <v>321991</v>
       </c>
@@ -44464,7 +44464,7 @@
         <v>103031</v>
       </c>
     </row>
-    <row r="621" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="621" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A621">
         <v>322504</v>
       </c>
@@ -44535,7 +44535,7 @@
         <v>103032</v>
       </c>
     </row>
-    <row r="622" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="622" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A622">
         <v>323017</v>
       </c>
@@ -44606,7 +44606,7 @@
         <v>103033</v>
       </c>
     </row>
-    <row r="623" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="623" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A623">
         <v>323530</v>
       </c>
@@ -44677,7 +44677,7 @@
         <v>103034</v>
       </c>
     </row>
-    <row r="624" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="624" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A624">
         <v>324043</v>
       </c>
@@ -44748,7 +44748,7 @@
         <v>103035</v>
       </c>
     </row>
-    <row r="625" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="625" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A625">
         <v>324556</v>
       </c>
@@ -44819,7 +44819,7 @@
         <v>103036</v>
       </c>
     </row>
-    <row r="626" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="626" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A626">
         <v>325069</v>
       </c>
@@ -44890,7 +44890,7 @@
         <v>103037</v>
       </c>
     </row>
-    <row r="627" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="627" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A627">
         <v>325582</v>
       </c>
@@ -44961,7 +44961,7 @@
         <v>103038</v>
       </c>
     </row>
-    <row r="628" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="628" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A628">
         <v>326095</v>
       </c>
@@ -45032,7 +45032,7 @@
         <v>103039</v>
       </c>
     </row>
-    <row r="629" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="629" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A629">
         <v>326608</v>
       </c>
@@ -45103,7 +45103,7 @@
         <v>103040</v>
       </c>
     </row>
-    <row r="630" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="630" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A630">
         <v>327121</v>
       </c>
@@ -45174,7 +45174,7 @@
         <v>103041</v>
       </c>
     </row>
-    <row r="631" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="631" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A631">
         <v>327634</v>
       </c>
@@ -45245,7 +45245,7 @@
         <v>103042</v>
       </c>
     </row>
-    <row r="632" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="632" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A632">
         <v>328147</v>
       </c>
@@ -45316,7 +45316,7 @@
         <v>103043</v>
       </c>
     </row>
-    <row r="633" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="633" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A633">
         <v>328660</v>
       </c>
@@ -45387,7 +45387,7 @@
         <v>103044</v>
       </c>
     </row>
-    <row r="634" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="634" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A634">
         <v>329173</v>
       </c>
@@ -45458,7 +45458,7 @@
         <v>103045</v>
       </c>
     </row>
-    <row r="635" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="635" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A635">
         <v>329686</v>
       </c>
@@ -45529,7 +45529,7 @@
         <v>103046</v>
       </c>
     </row>
-    <row r="636" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="636" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A636">
         <v>330199</v>
       </c>
@@ -45600,7 +45600,7 @@
         <v>103047</v>
       </c>
     </row>
-    <row r="637" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="637" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A637">
         <v>330712</v>
       </c>
@@ -45671,7 +45671,7 @@
         <v>103048</v>
       </c>
     </row>
-    <row r="638" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="638" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A638">
         <v>331225</v>
       </c>
@@ -45742,7 +45742,7 @@
         <v>103049</v>
       </c>
     </row>
-    <row r="639" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="639" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A639">
         <v>331738</v>
       </c>
@@ -45813,7 +45813,7 @@
         <v>103050</v>
       </c>
     </row>
-    <row r="640" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="640" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A640">
         <v>332251</v>
       </c>
@@ -45884,7 +45884,7 @@
         <v>103051</v>
       </c>
     </row>
-    <row r="641" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="641" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A641">
         <v>332764</v>
       </c>
@@ -45955,7 +45955,7 @@
         <v>103052</v>
       </c>
     </row>
-    <row r="642" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="642" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A642">
         <v>333277</v>
       </c>
@@ -46026,7 +46026,7 @@
         <v>103053</v>
       </c>
     </row>
-    <row r="643" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="643" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A643">
         <v>333790</v>
       </c>
@@ -46097,7 +46097,7 @@
         <v>103054</v>
       </c>
     </row>
-    <row r="644" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="644" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A644">
         <v>334303</v>
       </c>
@@ -46168,7 +46168,7 @@
         <v>103054</v>
       </c>
     </row>
-    <row r="645" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="645" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A645">
         <v>334816</v>
       </c>
@@ -46239,7 +46239,7 @@
         <v>103055</v>
       </c>
     </row>
-    <row r="646" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="646" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A646">
         <v>335329</v>
       </c>
@@ -46310,7 +46310,7 @@
         <v>103056</v>
       </c>
     </row>
-    <row r="647" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="647" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A647">
         <v>335842</v>
       </c>
@@ -46381,7 +46381,7 @@
         <v>103057</v>
       </c>
     </row>
-    <row r="648" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="648" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A648">
         <v>336355</v>
       </c>
@@ -46452,7 +46452,7 @@
         <v>103058</v>
       </c>
     </row>
-    <row r="649" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="649" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A649">
         <v>336868</v>
       </c>
@@ -46523,7 +46523,7 @@
         <v>103059</v>
       </c>
     </row>
-    <row r="650" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="650" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A650">
         <v>337381</v>
       </c>
@@ -46594,7 +46594,7 @@
         <v>103100</v>
       </c>
     </row>
-    <row r="651" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="651" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A651">
         <v>337894</v>
       </c>
@@ -46665,7 +46665,7 @@
         <v>103101</v>
       </c>
     </row>
-    <row r="652" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="652" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A652">
         <v>338407</v>
       </c>
@@ -46736,7 +46736,7 @@
         <v>103102</v>
       </c>
     </row>
-    <row r="653" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="653" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A653">
         <v>338920</v>
       </c>
@@ -46807,7 +46807,7 @@
         <v>103103</v>
       </c>
     </row>
-    <row r="654" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="654" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A654">
         <v>339433</v>
       </c>
@@ -46878,7 +46878,7 @@
         <v>103104</v>
       </c>
     </row>
-    <row r="655" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="655" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A655">
         <v>339946</v>
       </c>
@@ -46949,7 +46949,7 @@
         <v>103105</v>
       </c>
     </row>
-    <row r="656" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="656" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A656">
         <v>340459</v>
       </c>
@@ -47020,7 +47020,7 @@
         <v>103106</v>
       </c>
     </row>
-    <row r="657" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="657" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A657">
         <v>340972</v>
       </c>
@@ -47091,7 +47091,7 @@
         <v>103107</v>
       </c>
     </row>
-    <row r="658" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="658" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A658">
         <v>341485</v>
       </c>
@@ -47162,7 +47162,7 @@
         <v>103108</v>
       </c>
     </row>
-    <row r="659" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="659" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A659">
         <v>341998</v>
       </c>
@@ -47233,7 +47233,7 @@
         <v>103109</v>
       </c>
     </row>
-    <row r="660" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="660" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A660">
         <v>342511</v>
       </c>
@@ -47304,7 +47304,7 @@
         <v>103110</v>
       </c>
     </row>
-    <row r="661" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="661" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A661">
         <v>343024</v>
       </c>
@@ -47375,7 +47375,7 @@
         <v>103111</v>
       </c>
     </row>
-    <row r="662" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="662" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A662">
         <v>343537</v>
       </c>
@@ -47446,7 +47446,7 @@
         <v>103112</v>
       </c>
     </row>
-    <row r="663" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="663" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A663">
         <v>344050</v>
       </c>
@@ -47517,7 +47517,7 @@
         <v>103113</v>
       </c>
     </row>
-    <row r="664" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="664" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A664">
         <v>344563</v>
       </c>
@@ -47588,7 +47588,7 @@
         <v>103114</v>
       </c>
     </row>
-    <row r="665" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="665" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A665">
         <v>345076</v>
       </c>
@@ -47659,7 +47659,7 @@
         <v>103115</v>
       </c>
     </row>
-    <row r="666" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="666" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A666">
         <v>345589</v>
       </c>
@@ -47730,7 +47730,7 @@
         <v>103116</v>
       </c>
     </row>
-    <row r="667" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="667" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A667">
         <v>346102</v>
       </c>
@@ -47801,7 +47801,7 @@
         <v>103117</v>
       </c>
     </row>
-    <row r="668" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="668" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A668">
         <v>346615</v>
       </c>
@@ -47872,7 +47872,7 @@
         <v>103118</v>
       </c>
     </row>
-    <row r="669" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="669" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A669">
         <v>347128</v>
       </c>
@@ -47943,7 +47943,7 @@
         <v>103119</v>
       </c>
     </row>
-    <row r="670" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="670" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A670">
         <v>347641</v>
       </c>
@@ -48014,7 +48014,7 @@
         <v>103120</v>
       </c>
     </row>
-    <row r="671" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="671" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A671">
         <v>348154</v>
       </c>
@@ -48085,7 +48085,7 @@
         <v>103121</v>
       </c>
     </row>
-    <row r="672" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="672" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A672">
         <v>348667</v>
       </c>
@@ -48156,7 +48156,7 @@
         <v>103122</v>
       </c>
     </row>
-    <row r="673" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="673" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A673">
         <v>349180</v>
       </c>
@@ -48227,7 +48227,7 @@
         <v>103123</v>
       </c>
     </row>
-    <row r="674" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="674" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A674">
         <v>349693</v>
       </c>
@@ -48298,7 +48298,7 @@
         <v>103124</v>
       </c>
     </row>
-    <row r="675" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="675" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A675">
         <v>350206</v>
       </c>
@@ -48369,7 +48369,7 @@
         <v>103125</v>
       </c>
     </row>
-    <row r="676" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="676" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A676">
         <v>350719</v>
       </c>
@@ -48440,7 +48440,7 @@
         <v>103126</v>
       </c>
     </row>
-    <row r="677" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="677" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A677">
         <v>351232</v>
       </c>
@@ -48511,7 +48511,7 @@
         <v>103127</v>
       </c>
     </row>
-    <row r="678" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="678" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A678">
         <v>351745</v>
       </c>
@@ -48582,7 +48582,7 @@
         <v>103128</v>
       </c>
     </row>
-    <row r="679" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="679" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A679">
         <v>352258</v>
       </c>
@@ -48653,7 +48653,7 @@
         <v>103129</v>
       </c>
     </row>
-    <row r="680" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="680" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A680">
         <v>352771</v>
       </c>
@@ -48724,7 +48724,7 @@
         <v>103130</v>
       </c>
     </row>
-    <row r="681" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="681" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A681">
         <v>353284</v>
       </c>
@@ -48795,7 +48795,7 @@
         <v>103131</v>
       </c>
     </row>
-    <row r="682" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="682" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A682">
         <v>353797</v>
       </c>
@@ -48866,7 +48866,7 @@
         <v>103132</v>
       </c>
     </row>
-    <row r="683" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="683" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A683">
         <v>354310</v>
       </c>
@@ -48937,7 +48937,7 @@
         <v>103133</v>
       </c>
     </row>
-    <row r="684" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="684" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A684">
         <v>354823</v>
       </c>
@@ -49008,7 +49008,7 @@
         <v>103134</v>
       </c>
     </row>
-    <row r="685" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="685" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A685">
         <v>355336</v>
       </c>
@@ -49079,7 +49079,7 @@
         <v>103135</v>
       </c>
     </row>
-    <row r="686" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="686" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A686">
         <v>355849</v>
       </c>
@@ -49150,7 +49150,7 @@
         <v>103136</v>
       </c>
     </row>
-    <row r="687" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="687" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A687">
         <v>356362</v>
       </c>
@@ -49221,7 +49221,7 @@
         <v>103137</v>
       </c>
     </row>
-    <row r="688" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="688" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A688">
         <v>356875</v>
       </c>
@@ -49292,7 +49292,7 @@
         <v>103138</v>
       </c>
     </row>
-    <row r="689" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="689" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A689">
         <v>357388</v>
       </c>
@@ -49363,7 +49363,7 @@
         <v>103139</v>
       </c>
     </row>
-    <row r="690" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="690" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A690">
         <v>357901</v>
       </c>
@@ -49434,7 +49434,7 @@
         <v>103140</v>
       </c>
     </row>
-    <row r="691" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="691" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A691">
         <v>358414</v>
       </c>
@@ -49505,7 +49505,7 @@
         <v>103141</v>
       </c>
     </row>
-    <row r="692" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="692" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A692">
         <v>358927</v>
       </c>
@@ -49576,7 +49576,7 @@
         <v>103142</v>
       </c>
     </row>
-    <row r="693" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="693" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A693">
         <v>359440</v>
       </c>
@@ -49647,7 +49647,7 @@
         <v>103143</v>
       </c>
     </row>
-    <row r="694" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="694" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A694">
         <v>359953</v>
       </c>
@@ -49718,7 +49718,7 @@
         <v>103144</v>
       </c>
     </row>
-    <row r="695" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="695" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A695">
         <v>360466</v>
       </c>
@@ -49789,7 +49789,7 @@
         <v>103145</v>
       </c>
     </row>
-    <row r="696" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="696" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A696">
         <v>360979</v>
       </c>
@@ -49860,7 +49860,7 @@
         <v>103146</v>
       </c>
     </row>
-    <row r="697" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="697" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A697">
         <v>361492</v>
       </c>
@@ -49931,7 +49931,7 @@
         <v>103147</v>
       </c>
     </row>
-    <row r="698" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="698" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A698">
         <v>362005</v>
       </c>
@@ -50002,7 +50002,7 @@
         <v>103148</v>
       </c>
     </row>
-    <row r="699" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="699" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A699">
         <v>362518</v>
       </c>
@@ -50073,7 +50073,7 @@
         <v>103149</v>
       </c>
     </row>
-    <row r="700" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="700" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A700">
         <v>363031</v>
       </c>
@@ -50144,7 +50144,7 @@
         <v>103150</v>
       </c>
     </row>
-    <row r="701" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="701" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A701">
         <v>363544</v>
       </c>
@@ -50215,7 +50215,7 @@
         <v>103151</v>
       </c>
     </row>
-    <row r="702" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="702" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A702">
         <v>364057</v>
       </c>
@@ -50286,7 +50286,7 @@
         <v>103152</v>
       </c>
     </row>
-    <row r="703" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="703" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A703">
         <v>364570</v>
       </c>
@@ -50357,7 +50357,7 @@
         <v>103153</v>
       </c>
     </row>
-    <row r="704" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="704" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A704">
         <v>365083</v>
       </c>
@@ -50428,7 +50428,7 @@
         <v>103154</v>
       </c>
     </row>
-    <row r="705" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="705" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A705">
         <v>365596</v>
       </c>
@@ -50499,7 +50499,7 @@
         <v>103155</v>
       </c>
     </row>
-    <row r="706" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="706" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A706">
         <v>366109</v>
       </c>
@@ -50570,7 +50570,7 @@
         <v>103156</v>
       </c>
     </row>
-    <row r="707" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="707" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A707">
         <v>366622</v>
       </c>
@@ -50641,7 +50641,7 @@
         <v>103157</v>
       </c>
     </row>
-    <row r="708" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="708" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A708">
         <v>367135</v>
       </c>
@@ -50712,7 +50712,7 @@
         <v>103158</v>
       </c>
     </row>
-    <row r="709" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="709" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A709">
         <v>367648</v>
       </c>
@@ -50783,7 +50783,7 @@
         <v>103159</v>
       </c>
     </row>
-    <row r="710" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="710" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A710">
         <v>368161</v>
       </c>
@@ -50854,7 +50854,7 @@
         <v>103200</v>
       </c>
     </row>
-    <row r="711" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="711" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A711">
         <v>368674</v>
       </c>
@@ -50925,7 +50925,7 @@
         <v>103201</v>
       </c>
     </row>
-    <row r="712" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="712" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A712">
         <v>369187</v>
       </c>
@@ -50996,7 +50996,7 @@
         <v>103202</v>
       </c>
     </row>
-    <row r="713" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="713" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A713">
         <v>369700</v>
       </c>
@@ -51067,7 +51067,7 @@
         <v>103203</v>
       </c>
     </row>
-    <row r="714" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="714" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A714">
         <v>370213</v>
       </c>
@@ -51138,7 +51138,7 @@
         <v>103204</v>
       </c>
     </row>
-    <row r="715" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="715" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A715">
         <v>370726</v>
       </c>
@@ -51209,7 +51209,7 @@
         <v>103205</v>
       </c>
     </row>
-    <row r="716" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="716" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A716">
         <v>371239</v>
       </c>
@@ -51280,7 +51280,7 @@
         <v>103206</v>
       </c>
     </row>
-    <row r="717" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="717" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A717">
         <v>371752</v>
       </c>
@@ -51351,7 +51351,7 @@
         <v>103207</v>
       </c>
     </row>
-    <row r="718" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="718" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A718">
         <v>372265</v>
       </c>
@@ -51422,7 +51422,7 @@
         <v>103208</v>
       </c>
     </row>
-    <row r="719" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="719" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A719">
         <v>372778</v>
       </c>
@@ -51493,7 +51493,7 @@
         <v>103209</v>
       </c>
     </row>
-    <row r="720" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="720" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A720">
         <v>373291</v>
       </c>
@@ -51564,7 +51564,7 @@
         <v>103210</v>
       </c>
     </row>
-    <row r="721" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="721" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A721">
         <v>373804</v>
       </c>
@@ -51635,7 +51635,7 @@
         <v>103211</v>
       </c>
     </row>
-    <row r="722" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="722" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A722">
         <v>374317</v>
       </c>
@@ -51706,7 +51706,7 @@
         <v>103212</v>
       </c>
     </row>
-    <row r="723" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="723" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A723">
         <v>374830</v>
       </c>
@@ -51777,7 +51777,7 @@
         <v>103213</v>
       </c>
     </row>
-    <row r="724" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="724" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A724">
         <v>375343</v>
       </c>
@@ -51848,7 +51848,7 @@
         <v>103214</v>
       </c>
     </row>
-    <row r="725" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="725" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A725">
         <v>375856</v>
       </c>
@@ -51919,7 +51919,7 @@
         <v>103215</v>
       </c>
     </row>
-    <row r="726" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="726" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A726">
         <v>376369</v>
       </c>
@@ -51990,7 +51990,7 @@
         <v>103216</v>
       </c>
     </row>
-    <row r="727" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="727" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A727">
         <v>376882</v>
       </c>
@@ -52061,7 +52061,7 @@
         <v>103217</v>
       </c>
     </row>
-    <row r="728" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="728" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A728">
         <v>377395</v>
       </c>
@@ -52132,7 +52132,7 @@
         <v>103218</v>
       </c>
     </row>
-    <row r="729" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="729" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A729">
         <v>377908</v>
       </c>
@@ -52203,7 +52203,7 @@
         <v>103219</v>
       </c>
     </row>
-    <row r="730" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="730" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A730">
         <v>378421</v>
       </c>
@@ -52274,7 +52274,7 @@
         <v>103220</v>
       </c>
     </row>
-    <row r="731" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="731" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A731">
         <v>378934</v>
       </c>
@@ -52345,7 +52345,7 @@
         <v>103221</v>
       </c>
     </row>
-    <row r="732" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="732" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A732">
         <v>379447</v>
       </c>
@@ -52416,7 +52416,7 @@
         <v>103222</v>
       </c>
     </row>
-    <row r="733" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="733" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A733">
         <v>379960</v>
       </c>
@@ -52487,7 +52487,7 @@
         <v>103223</v>
       </c>
     </row>
-    <row r="734" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="734" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A734">
         <v>380473</v>
       </c>
@@ -52558,7 +52558,7 @@
         <v>103224</v>
       </c>
     </row>
-    <row r="735" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="735" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A735">
         <v>380986</v>
       </c>
@@ -52629,7 +52629,7 @@
         <v>103225</v>
       </c>
     </row>
-    <row r="736" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="736" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A736">
         <v>381499</v>
       </c>
@@ -52700,7 +52700,7 @@
         <v>103226</v>
       </c>
     </row>
-    <row r="737" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="737" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A737">
         <v>382012</v>
       </c>
@@ -52771,7 +52771,7 @@
         <v>103227</v>
       </c>
     </row>
-    <row r="738" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="738" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A738">
         <v>382525</v>
       </c>
@@ -52842,7 +52842,7 @@
         <v>103228</v>
       </c>
     </row>
-    <row r="739" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="739" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A739">
         <v>383038</v>
       </c>
@@ -52913,7 +52913,7 @@
         <v>103229</v>
       </c>
     </row>
-    <row r="740" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="740" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A740">
         <v>383551</v>
       </c>
@@ -52984,7 +52984,7 @@
         <v>103230</v>
       </c>
     </row>
-    <row r="741" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="741" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A741">
         <v>384064</v>
       </c>
@@ -53055,7 +53055,7 @@
         <v>103231</v>
       </c>
     </row>
-    <row r="742" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="742" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A742">
         <v>384577</v>
       </c>
@@ -53126,7 +53126,7 @@
         <v>103232</v>
       </c>
     </row>
-    <row r="743" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="743" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A743">
         <v>385090</v>
       </c>
@@ -53197,7 +53197,7 @@
         <v>103233</v>
       </c>
     </row>
-    <row r="744" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="744" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A744">
         <v>385603</v>
       </c>
@@ -53268,7 +53268,7 @@
         <v>103234</v>
       </c>
     </row>
-    <row r="745" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="745" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A745">
         <v>386116</v>
       </c>
@@ -53339,7 +53339,7 @@
         <v>103235</v>
       </c>
     </row>
-    <row r="746" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="746" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A746">
         <v>386629</v>
       </c>
@@ -53410,7 +53410,7 @@
         <v>103236</v>
       </c>
     </row>
-    <row r="747" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="747" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A747">
         <v>387142</v>
       </c>
@@ -53481,7 +53481,7 @@
         <v>103237</v>
       </c>
     </row>
-    <row r="748" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="748" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A748">
         <v>387655</v>
       </c>
@@ -53552,7 +53552,7 @@
         <v>103238</v>
       </c>
     </row>
-    <row r="749" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="749" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A749">
         <v>388168</v>
       </c>
@@ -53623,7 +53623,7 @@
         <v>103239</v>
       </c>
     </row>
-    <row r="750" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="750" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A750">
         <v>388681</v>
       </c>
@@ -53694,7 +53694,7 @@
         <v>103240</v>
       </c>
     </row>
-    <row r="751" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="751" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A751">
         <v>389194</v>
       </c>
@@ -53765,7 +53765,7 @@
         <v>103241</v>
       </c>
     </row>
-    <row r="752" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="752" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A752">
         <v>389707</v>
       </c>
@@ -53836,7 +53836,7 @@
         <v>103242</v>
       </c>
     </row>
-    <row r="753" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="753" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A753">
         <v>390220</v>
       </c>
@@ -53907,7 +53907,7 @@
         <v>103243</v>
       </c>
     </row>
-    <row r="754" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="754" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A754">
         <v>390733</v>
       </c>
@@ -53978,7 +53978,7 @@
         <v>103244</v>
       </c>
     </row>
-    <row r="755" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="755" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A755">
         <v>391246</v>
       </c>
@@ -54049,7 +54049,7 @@
         <v>103245</v>
       </c>
     </row>
-    <row r="756" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="756" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A756">
         <v>391759</v>
       </c>
@@ -54120,7 +54120,7 @@
         <v>103246</v>
       </c>
     </row>
-    <row r="757" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="757" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A757">
         <v>392272</v>
       </c>
@@ -54191,7 +54191,7 @@
         <v>103247</v>
       </c>
     </row>
-    <row r="758" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="758" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A758">
         <v>392785</v>
       </c>
@@ -54262,7 +54262,7 @@
         <v>103248</v>
       </c>
     </row>
-    <row r="759" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="759" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A759">
         <v>393298</v>
       </c>
@@ -54333,7 +54333,7 @@
         <v>103249</v>
       </c>
     </row>
-    <row r="760" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="760" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A760">
         <v>393811</v>
       </c>
@@ -54404,7 +54404,7 @@
         <v>103250</v>
       </c>
     </row>
-    <row r="761" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="761" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A761">
         <v>394324</v>
       </c>
@@ -54475,7 +54475,7 @@
         <v>103251</v>
       </c>
     </row>
-    <row r="762" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="762" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A762">
         <v>394837</v>
       </c>
@@ -54546,7 +54546,7 @@
         <v>103252</v>
       </c>
     </row>
-    <row r="763" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="763" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A763">
         <v>395350</v>
       </c>
@@ -54617,7 +54617,7 @@
         <v>103253</v>
       </c>
     </row>
-    <row r="764" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="764" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A764">
         <v>395863</v>
       </c>
@@ -54688,7 +54688,7 @@
         <v>103254</v>
       </c>
     </row>
-    <row r="765" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="765" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A765">
         <v>396376</v>
       </c>
@@ -54759,7 +54759,7 @@
         <v>103255</v>
       </c>
     </row>
-    <row r="766" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="766" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A766">
         <v>396889</v>
       </c>
@@ -54830,7 +54830,7 @@
         <v>103256</v>
       </c>
     </row>
-    <row r="767" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="767" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A767">
         <v>397402</v>
       </c>
@@ -54901,7 +54901,7 @@
         <v>103257</v>
       </c>
     </row>
-    <row r="768" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="768" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A768">
         <v>397915</v>
       </c>
@@ -54972,7 +54972,7 @@
         <v>103258</v>
       </c>
     </row>
-    <row r="769" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="769" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A769">
         <v>398428</v>
       </c>
@@ -55043,7 +55043,7 @@
         <v>103259</v>
       </c>
     </row>
-    <row r="770" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="770" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A770">
         <v>398941</v>
       </c>
@@ -55114,7 +55114,7 @@
         <v>103300</v>
       </c>
     </row>
-    <row r="771" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="771" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A771">
         <v>399454</v>
       </c>
@@ -55185,7 +55185,7 @@
         <v>103301</v>
       </c>
     </row>
-    <row r="772" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="772" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A772">
         <v>399967</v>
       </c>
@@ -55256,7 +55256,7 @@
         <v>103302</v>
       </c>
     </row>
-    <row r="773" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="773" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A773">
         <v>400480</v>
       </c>
@@ -55327,7 +55327,7 @@
         <v>103303</v>
       </c>
     </row>
-    <row r="774" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="774" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A774">
         <v>400993</v>
       </c>
@@ -55398,7 +55398,7 @@
         <v>103304</v>
       </c>
     </row>
-    <row r="775" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="775" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A775">
         <v>401506</v>
       </c>
@@ -55469,7 +55469,7 @@
         <v>103305</v>
       </c>
     </row>
-    <row r="776" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="776" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A776">
         <v>402019</v>
       </c>
@@ -55540,7 +55540,7 @@
         <v>103306</v>
       </c>
     </row>
-    <row r="777" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="777" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A777">
         <v>402532</v>
       </c>
@@ -55611,7 +55611,7 @@
         <v>103307</v>
       </c>
     </row>
-    <row r="778" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="778" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A778">
         <v>403045</v>
       </c>
@@ -55682,7 +55682,7 @@
         <v>103308</v>
       </c>
     </row>
-    <row r="779" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="779" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A779">
         <v>403558</v>
       </c>
@@ -55753,7 +55753,7 @@
         <v>103309</v>
       </c>
     </row>
-    <row r="780" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="780" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A780">
         <v>404071</v>
       </c>
@@ -55824,7 +55824,7 @@
         <v>103310</v>
       </c>
     </row>
-    <row r="781" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="781" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A781">
         <v>404584</v>
       </c>
@@ -55895,7 +55895,7 @@
         <v>103311</v>
       </c>
     </row>
-    <row r="782" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="782" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A782">
         <v>405097</v>
       </c>
@@ -55966,7 +55966,7 @@
         <v>103312</v>
       </c>
     </row>
-    <row r="783" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="783" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A783">
         <v>405610</v>
       </c>
@@ -56037,7 +56037,7 @@
         <v>103313</v>
       </c>
     </row>
-    <row r="784" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="784" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A784">
         <v>406123</v>
       </c>
@@ -56108,7 +56108,7 @@
         <v>103314</v>
       </c>
     </row>
-    <row r="785" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="785" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A785">
         <v>406636</v>
       </c>
@@ -56179,7 +56179,7 @@
         <v>103315</v>
       </c>
     </row>
-    <row r="786" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="786" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A786">
         <v>407149</v>
       </c>
@@ -56250,7 +56250,7 @@
         <v>103316</v>
       </c>
     </row>
-    <row r="787" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="787" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A787">
         <v>407662</v>
       </c>
@@ -56321,7 +56321,7 @@
         <v>103317</v>
       </c>
     </row>
-    <row r="788" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="788" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A788">
         <v>408175</v>
       </c>
@@ -56392,7 +56392,7 @@
         <v>103318</v>
       </c>
     </row>
-    <row r="789" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="789" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A789">
         <v>408688</v>
       </c>
@@ -56463,7 +56463,7 @@
         <v>103319</v>
       </c>
     </row>
-    <row r="790" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="790" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A790">
         <v>409201</v>
       </c>
@@ -56534,7 +56534,7 @@
         <v>103320</v>
       </c>
     </row>
-    <row r="791" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="791" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A791">
         <v>409714</v>
       </c>
@@ -56605,7 +56605,7 @@
         <v>103321</v>
       </c>
     </row>
-    <row r="792" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="792" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A792">
         <v>410227</v>
       </c>
@@ -56676,7 +56676,7 @@
         <v>103322</v>
       </c>
     </row>
-    <row r="793" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="793" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A793">
         <v>410740</v>
       </c>
@@ -56747,7 +56747,7 @@
         <v>103323</v>
       </c>
     </row>
-    <row r="794" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="794" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A794">
         <v>411253</v>
       </c>
@@ -56818,7 +56818,7 @@
         <v>103324</v>
       </c>
     </row>
-    <row r="795" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="795" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A795">
         <v>411766</v>
       </c>
@@ -56889,7 +56889,7 @@
         <v>103325</v>
       </c>
     </row>
-    <row r="796" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="796" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A796">
         <v>412279</v>
       </c>
@@ -56960,7 +56960,7 @@
         <v>103326</v>
       </c>
     </row>
-    <row r="797" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="797" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A797">
         <v>412792</v>
       </c>
@@ -57031,7 +57031,7 @@
         <v>103327</v>
       </c>
     </row>
-    <row r="798" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="798" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A798">
         <v>413305</v>
       </c>
@@ -57102,7 +57102,7 @@
         <v>103328</v>
       </c>
     </row>
-    <row r="799" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="799" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A799">
         <v>413818</v>
       </c>
@@ -57173,7 +57173,7 @@
         <v>103329</v>
       </c>
     </row>
-    <row r="800" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="800" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A800">
         <v>414331</v>
       </c>
@@ -57244,7 +57244,7 @@
         <v>103330</v>
       </c>
     </row>
-    <row r="801" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="801" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A801">
         <v>414844</v>
       </c>
@@ -57315,7 +57315,7 @@
         <v>103331</v>
       </c>
     </row>
-    <row r="802" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="802" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A802">
         <v>415357</v>
       </c>
@@ -57386,7 +57386,7 @@
         <v>103332</v>
       </c>
     </row>
-    <row r="803" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="803" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A803">
         <v>415870</v>
       </c>
@@ -57457,7 +57457,7 @@
         <v>103333</v>
       </c>
     </row>
-    <row r="804" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="804" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A804">
         <v>416383</v>
       </c>
@@ -57528,7 +57528,7 @@
         <v>103334</v>
       </c>
     </row>
-    <row r="805" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="805" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A805">
         <v>416896</v>
       </c>
@@ -57599,7 +57599,7 @@
         <v>103335</v>
       </c>
     </row>
-    <row r="806" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="806" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A806">
         <v>417409</v>
       </c>
@@ -57670,7 +57670,7 @@
         <v>103336</v>
       </c>
     </row>
-    <row r="807" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="807" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A807">
         <v>417922</v>
       </c>
@@ -57741,7 +57741,7 @@
         <v>103337</v>
       </c>
     </row>
-    <row r="808" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="808" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A808">
         <v>418435</v>
       </c>
@@ -57812,7 +57812,7 @@
         <v>103338</v>
       </c>
     </row>
-    <row r="809" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="809" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A809">
         <v>418948</v>
       </c>
@@ -57883,7 +57883,7 @@
         <v>103339</v>
       </c>
     </row>
-    <row r="810" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="810" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A810">
         <v>419461</v>
       </c>
@@ -57954,7 +57954,7 @@
         <v>103340</v>
       </c>
     </row>
-    <row r="811" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="811" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A811">
         <v>419974</v>
       </c>
@@ -58025,7 +58025,7 @@
         <v>103341</v>
       </c>
     </row>
-    <row r="812" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="812" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A812">
         <v>420487</v>
       </c>
@@ -58096,7 +58096,7 @@
         <v>103342</v>
       </c>
     </row>
-    <row r="813" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="813" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A813">
         <v>421000</v>
       </c>
@@ -58167,7 +58167,7 @@
         <v>103343</v>
       </c>
     </row>
-    <row r="814" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="814" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A814">
         <v>421513</v>
       </c>
@@ -58238,7 +58238,7 @@
         <v>103344</v>
       </c>
     </row>
-    <row r="815" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="815" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A815">
         <v>422026</v>
       </c>
@@ -58309,7 +58309,7 @@
         <v>103345</v>
       </c>
     </row>
-    <row r="816" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="816" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A816">
         <v>422539</v>
       </c>
@@ -58380,7 +58380,7 @@
         <v>103346</v>
       </c>
     </row>
-    <row r="817" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="817" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A817">
         <v>423052</v>
       </c>
@@ -58451,7 +58451,7 @@
         <v>103347</v>
       </c>
     </row>
-    <row r="818" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="818" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A818">
         <v>423565</v>
       </c>
@@ -58522,7 +58522,7 @@
         <v>103348</v>
       </c>
     </row>
-    <row r="819" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="819" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A819">
         <v>424078</v>
       </c>
@@ -58593,7 +58593,7 @@
         <v>103349</v>
       </c>
     </row>
-    <row r="820" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="820" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A820">
         <v>424591</v>
       </c>
@@ -58664,7 +58664,7 @@
         <v>103350</v>
       </c>
     </row>
-    <row r="821" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="821" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A821">
         <v>425104</v>
       </c>
@@ -58735,7 +58735,7 @@
         <v>103351</v>
       </c>
     </row>
-    <row r="822" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="822" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A822">
         <v>425617</v>
       </c>
@@ -58806,7 +58806,7 @@
         <v>103352</v>
       </c>
     </row>
-    <row r="823" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="823" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A823">
         <v>426130</v>
       </c>
@@ -58877,7 +58877,7 @@
         <v>103353</v>
       </c>
     </row>
-    <row r="824" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="824" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A824">
         <v>426643</v>
       </c>
@@ -58948,7 +58948,7 @@
         <v>103354</v>
       </c>
     </row>
-    <row r="825" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="825" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A825">
         <v>427156</v>
       </c>
@@ -59019,7 +59019,7 @@
         <v>103355</v>
       </c>
     </row>
-    <row r="826" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="826" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A826">
         <v>427669</v>
       </c>
@@ -59090,7 +59090,7 @@
         <v>103356</v>
       </c>
     </row>
-    <row r="827" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="827" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A827">
         <v>428182</v>
       </c>
@@ -59161,7 +59161,7 @@
         <v>103357</v>
       </c>
     </row>
-    <row r="828" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="828" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A828">
         <v>428695</v>
       </c>
@@ -59232,7 +59232,7 @@
         <v>103358</v>
       </c>
     </row>
-    <row r="829" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="829" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A829">
         <v>429208</v>
       </c>
@@ -59303,7 +59303,7 @@
         <v>103359</v>
       </c>
     </row>
-    <row r="830" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="830" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A830">
         <v>429721</v>
       </c>
@@ -59374,7 +59374,7 @@
         <v>103400</v>
       </c>
     </row>
-    <row r="831" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="831" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A831">
         <v>430234</v>
       </c>
@@ -59445,7 +59445,7 @@
         <v>103401</v>
       </c>
     </row>
-    <row r="832" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="832" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A832">
         <v>430747</v>
       </c>
@@ -59516,7 +59516,7 @@
         <v>103402</v>
       </c>
     </row>
-    <row r="833" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="833" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A833">
         <v>431260</v>
       </c>
@@ -59587,7 +59587,7 @@
         <v>103403</v>
       </c>
     </row>
-    <row r="834" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="834" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A834">
         <v>431773</v>
       </c>
@@ -59658,7 +59658,7 @@
         <v>103404</v>
       </c>
     </row>
-    <row r="835" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="835" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A835">
         <v>432286</v>
       </c>
@@ -59729,7 +59729,7 @@
         <v>103405</v>
       </c>
     </row>
-    <row r="836" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="836" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A836">
         <v>432799</v>
       </c>
@@ -59800,7 +59800,7 @@
         <v>103406</v>
       </c>
     </row>
-    <row r="837" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="837" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A837">
         <v>433312</v>
       </c>
@@ -59871,7 +59871,7 @@
         <v>103407</v>
       </c>
     </row>
-    <row r="838" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="838" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A838">
         <v>433825</v>
       </c>
@@ -59942,7 +59942,7 @@
         <v>103408</v>
       </c>
     </row>
-    <row r="839" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="839" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A839">
         <v>434338</v>
       </c>
@@ -60013,7 +60013,7 @@
         <v>103409</v>
       </c>
     </row>
-    <row r="840" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="840" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A840">
         <v>434851</v>
       </c>
@@ -60084,7 +60084,7 @@
         <v>103410</v>
       </c>
     </row>
-    <row r="841" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="841" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A841">
         <v>435364</v>
       </c>
@@ -60155,7 +60155,7 @@
         <v>103411</v>
       </c>
     </row>
-    <row r="842" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="842" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A842">
         <v>435877</v>
       </c>
@@ -60226,7 +60226,7 @@
         <v>103412</v>
       </c>
     </row>
-    <row r="843" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="843" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A843">
         <v>436390</v>
       </c>
@@ -60297,7 +60297,7 @@
         <v>103413</v>
       </c>
     </row>
-    <row r="844" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="844" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A844">
         <v>436903</v>
       </c>
@@ -60368,7 +60368,7 @@
         <v>103414</v>
       </c>
     </row>
-    <row r="845" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="845" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A845">
         <v>437416</v>
       </c>
@@ -60439,7 +60439,7 @@
         <v>103415</v>
       </c>
     </row>
-    <row r="846" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="846" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A846">
         <v>437929</v>
       </c>
@@ -60510,7 +60510,7 @@
         <v>103415</v>
       </c>
     </row>
-    <row r="847" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="847" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A847">
         <v>438442</v>
       </c>
@@ -60581,7 +60581,7 @@
         <v>103417</v>
       </c>
     </row>
-    <row r="848" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="848" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A848">
         <v>438955</v>
       </c>
@@ -60652,7 +60652,7 @@
         <v>103417</v>
       </c>
     </row>
-    <row r="849" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="849" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A849">
         <v>439468</v>
       </c>
@@ -60723,7 +60723,7 @@
         <v>103418</v>
       </c>
     </row>
-    <row r="850" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="850" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A850">
         <v>439981</v>
       </c>
@@ -60794,7 +60794,7 @@
         <v>103419</v>
       </c>
     </row>
-    <row r="851" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="851" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A851">
         <v>440494</v>
       </c>
@@ -60865,7 +60865,7 @@
         <v>103420</v>
       </c>
     </row>
-    <row r="852" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="852" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A852">
         <v>441007</v>
       </c>
@@ -60936,7 +60936,7 @@
         <v>103421</v>
       </c>
     </row>
-    <row r="853" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="853" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A853">
         <v>441520</v>
       </c>
@@ -61007,7 +61007,7 @@
         <v>103422</v>
       </c>
     </row>
-    <row r="854" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="854" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A854">
         <v>442033</v>
       </c>
@@ -61078,7 +61078,7 @@
         <v>103423</v>
       </c>
     </row>
-    <row r="855" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="855" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A855">
         <v>442546</v>
       </c>
@@ -61149,7 +61149,7 @@
         <v>103424</v>
       </c>
     </row>
-    <row r="856" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="856" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A856">
         <v>443059</v>
       </c>
@@ -61220,7 +61220,7 @@
         <v>103425</v>
       </c>
     </row>
-    <row r="857" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="857" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A857">
         <v>443572</v>
       </c>
@@ -61291,7 +61291,7 @@
         <v>103426</v>
       </c>
     </row>
-    <row r="858" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="858" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A858">
         <v>444085</v>
       </c>
@@ -61362,7 +61362,7 @@
         <v>103427</v>
       </c>
     </row>
-    <row r="859" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="859" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A859">
         <v>444598</v>
       </c>
@@ -61433,7 +61433,7 @@
         <v>103428</v>
       </c>
     </row>
-    <row r="860" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="860" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A860">
         <v>445111</v>
       </c>
@@ -61504,7 +61504,7 @@
         <v>103429</v>
       </c>
     </row>
-    <row r="861" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="861" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A861">
         <v>445624</v>
       </c>
@@ -61575,7 +61575,7 @@
         <v>103430</v>
       </c>
     </row>
-    <row r="862" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="862" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A862">
         <v>446137</v>
       </c>
@@ -61646,7 +61646,7 @@
         <v>103431</v>
       </c>
     </row>
-    <row r="863" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="863" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A863">
         <v>446650</v>
       </c>
@@ -61717,7 +61717,7 @@
         <v>103432</v>
       </c>
     </row>
-    <row r="864" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="864" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A864">
         <v>447163</v>
       </c>
@@ -61788,7 +61788,7 @@
         <v>103433</v>
       </c>
     </row>
-    <row r="865" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="865" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A865">
         <v>447676</v>
       </c>
@@ -61859,7 +61859,7 @@
         <v>103434</v>
       </c>
     </row>
-    <row r="866" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="866" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A866">
         <v>448189</v>
       </c>
@@ -61930,7 +61930,7 @@
         <v>103435</v>
       </c>
     </row>
-    <row r="867" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="867" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A867">
         <v>448702</v>
       </c>
@@ -62001,7 +62001,7 @@
         <v>103436</v>
       </c>
     </row>
-    <row r="868" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="868" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A868">
         <v>449215</v>
       </c>
@@ -62072,7 +62072,7 @@
         <v>103437</v>
       </c>
     </row>
-    <row r="869" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="869" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A869">
         <v>449728</v>
       </c>
@@ -62143,7 +62143,7 @@
         <v>103438</v>
       </c>
     </row>
-    <row r="870" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="870" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A870">
         <v>450241</v>
       </c>
@@ -62214,7 +62214,7 @@
         <v>103439</v>
       </c>
     </row>
-    <row r="871" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="871" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A871">
         <v>450754</v>
       </c>
@@ -62285,7 +62285,7 @@
         <v>103440</v>
       </c>
     </row>
-    <row r="872" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="872" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A872">
         <v>451267</v>
       </c>
@@ -62356,7 +62356,7 @@
         <v>103441</v>
       </c>
     </row>
-    <row r="873" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="873" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A873">
         <v>451780</v>
       </c>
@@ -62427,7 +62427,7 @@
         <v>103442</v>
       </c>
     </row>
-    <row r="874" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="874" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A874">
         <v>452293</v>
       </c>
@@ -62498,7 +62498,7 @@
         <v>103443</v>
       </c>
     </row>
-    <row r="875" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="875" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A875">
         <v>452806</v>
       </c>
@@ -62569,7 +62569,7 @@
         <v>103444</v>
       </c>
     </row>
-    <row r="876" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="876" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A876">
         <v>453319</v>
       </c>
@@ -62640,7 +62640,7 @@
         <v>103445</v>
       </c>
     </row>
-    <row r="877" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="877" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A877">
         <v>453832</v>
       </c>
@@ -62711,7 +62711,7 @@
         <v>103446</v>
       </c>
     </row>
-    <row r="878" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="878" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A878">
         <v>454345</v>
       </c>
@@ -62782,7 +62782,7 @@
         <v>103447</v>
       </c>
     </row>
-    <row r="879" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="879" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A879">
         <v>454858</v>
       </c>
@@ -62853,7 +62853,7 @@
         <v>103448</v>
       </c>
     </row>
-    <row r="880" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="880" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A880">
         <v>455371</v>
       </c>
@@ -62924,7 +62924,7 @@
         <v>103449</v>
       </c>
     </row>
-    <row r="881" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="881" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A881">
         <v>455884</v>
       </c>
@@ -62995,7 +62995,7 @@
         <v>103450</v>
       </c>
     </row>
-    <row r="882" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="882" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A882">
         <v>456397</v>
       </c>
@@ -63066,7 +63066,7 @@
         <v>103451</v>
       </c>
     </row>
-    <row r="883" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="883" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A883">
         <v>456910</v>
       </c>
@@ -63137,7 +63137,7 @@
         <v>103452</v>
       </c>
     </row>
-    <row r="884" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="884" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A884">
         <v>457423</v>
       </c>
@@ -63208,7 +63208,7 @@
         <v>103453</v>
       </c>
     </row>
-    <row r="885" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="885" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A885">
         <v>457936</v>
       </c>
@@ -63279,7 +63279,7 @@
         <v>103454</v>
       </c>
     </row>
-    <row r="886" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="886" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A886">
         <v>458449</v>
       </c>
@@ -63350,7 +63350,7 @@
         <v>103455</v>
       </c>
     </row>
-    <row r="887" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="887" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A887">
         <v>458962</v>
       </c>
@@ -63421,7 +63421,7 @@
         <v>103456</v>
       </c>
     </row>
-    <row r="888" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="888" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A888">
         <v>459475</v>
       </c>
@@ -63492,7 +63492,7 @@
         <v>103457</v>
       </c>
     </row>
-    <row r="889" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="889" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A889">
         <v>459988</v>
       </c>
